--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -974,13 +974,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
     <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1106,14 +1106,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -1130,7 +1122,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,39 +1136,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,8 +1168,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1214,7 +1193,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1222,7 +1215,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1300,13 +1300,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,13 +1342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,55 +1354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,7 +1378,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,73 +1480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,10 +1555,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1602,191 +1643,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1806,10 +1806,10 @@
     <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1824,10 +1824,10 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1842,7 +1842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1899,13 +1899,13 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1914,7 +1914,7 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1923,7 +1923,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1932,13 +1932,13 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1998,16 +1998,16 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2016,7 +2016,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6616,11 +6616,11 @@
   <dimension ref="A1:BU552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -6616,11 +6616,11 @@
   <dimension ref="A1:BU552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -7399,7 +7399,9 @@
         <f>(F8-R8)*G8+H8+I8+5</f>
         <v>463.999999999999</v>
       </c>
-      <c r="T8" s="45"/>
+      <c r="T8" s="45">
+        <v>44543</v>
+      </c>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
       <c r="W8" s="30"/>
@@ -7944,7 +7946,9 @@
         <f t="shared" si="3"/>
         <v>566.999999999999</v>
       </c>
-      <c r="T14" s="28"/>
+      <c r="T14" s="42">
+        <v>44543</v>
+      </c>
       <c r="U14" s="28"/>
       <c r="V14" s="28"/>
       <c r="W14" s="28"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -6496,11 +6496,11 @@
   <dimension ref="A1:BV552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE11" sqref="AE11"/>
+      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -7341,7 +7341,10 @@
         <f>Z8-J8</f>
         <v>20.7550000000001</v>
       </c>
-      <c r="AF8" s="67"/>
+      <c r="AF8" s="67">
+        <f>(U8-F8)/O8</f>
+        <v>0.0299448384554775</v>
+      </c>
       <c r="AG8" s="101" t="s">
         <v>57</v>
       </c>
@@ -7755,7 +7758,9 @@
       <c r="AE12" s="90">
         <v>0</v>
       </c>
-      <c r="AF12" s="29"/>
+      <c r="AF12" s="67">
+        <v>0</v>
+      </c>
       <c r="AG12" s="14"/>
     </row>
     <row r="13" ht="14" spans="1:33">
@@ -7846,7 +7851,9 @@
       <c r="AE13" s="90">
         <v>0</v>
       </c>
-      <c r="AF13" s="29"/>
+      <c r="AF13" s="67">
+        <v>0</v>
+      </c>
       <c r="AG13" s="14"/>
     </row>
     <row r="14" ht="14" spans="1:33">
@@ -7949,7 +7956,10 @@
         <f>Z14-J14</f>
         <v>-454.3992</v>
       </c>
-      <c r="AF14" s="29"/>
+      <c r="AF14" s="67">
+        <f>(U14-F14)/O14</f>
+        <v>-0.166473541908073</v>
+      </c>
       <c r="AG14" s="14"/>
     </row>
     <row r="15" ht="14" spans="1:33">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -6502,11 +6502,11 @@
   <dimension ref="A1:BV552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -880,10 +880,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -902,6 +904,12 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
@@ -944,14 +952,6 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1495,64 +1495,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1573,19 +1573,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1594,49 +1594,49 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1746,7 +1746,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1923,22 +1923,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1947,19 +1947,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -6506,7 +6506,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -8136,7 +8136,7 @@
       <c r="AF16" s="29"/>
       <c r="AG16" s="14"/>
     </row>
-    <row r="17" ht="13" spans="1:33">
+    <row r="17" ht="14" spans="1:33">
       <c r="A17" s="27" t="s">
         <v>85</v>
       </c>
@@ -8146,7 +8146,7 @@
       <c r="C17" s="29">
         <v>600032</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="34" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="44">
@@ -8214,7 +8214,7 @@
       <c r="AF17" s="29"/>
       <c r="AG17" s="14"/>
     </row>
-    <row r="18" ht="13" spans="1:33">
+    <row r="18" ht="14" spans="1:33">
       <c r="A18" s="27" t="s">
         <v>88</v>
       </c>
@@ -22984,6 +22984,8 @@
     <hyperlink ref="D16" r:id="rId8" display="石英股份"/>
     <hyperlink ref="D15" r:id="rId9" display="明泰铝业"/>
     <hyperlink ref="D14" r:id="rId10" display="振华科技"/>
+    <hyperlink ref="D17" r:id="rId11" display="浙江新能"/>
+    <hyperlink ref="D18" r:id="rId11" display="浙江新能"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>交易计划执行结果编码</t>
   </si>
@@ -532,7 +532,7 @@
     <t>JG_0000001</t>
   </si>
   <si>
-    <t>000001</t>
+    <t>JH_00015</t>
   </si>
   <si>
     <t>003040</t>
@@ -552,7 +552,7 @@
     <t>JG_0000003</t>
   </si>
   <si>
-    <t>000002</t>
+    <t>JH_00001</t>
   </si>
   <si>
     <t>同仁堂</t>
@@ -561,7 +561,7 @@
     <t>JG_0000004</t>
   </si>
   <si>
-    <t>000003</t>
+    <t>JH_00002</t>
   </si>
   <si>
     <t>新化股份</t>
@@ -570,7 +570,7 @@
     <t>JG_0000005</t>
   </si>
   <si>
-    <t>000004</t>
+    <t>JH_00012</t>
   </si>
   <si>
     <t>002932</t>
@@ -585,7 +585,7 @@
     <t>JG_0000006</t>
   </si>
   <si>
-    <t>000005</t>
+    <t>JH_00014</t>
   </si>
   <si>
     <t>百龙创园</t>
@@ -597,7 +597,7 @@
     <t>JG_0000007</t>
   </si>
   <si>
-    <t>000006</t>
+    <t>JH_00013</t>
   </si>
   <si>
     <t>万盛股份</t>
@@ -626,7 +626,7 @@
     <t>JG_0000008</t>
   </si>
   <si>
-    <t>000035</t>
+    <t>JH_00016</t>
   </si>
   <si>
     <t>002585</t>
@@ -757,13 +757,7 @@
     <t>JG_0000016</t>
   </si>
   <si>
-    <t>000033</t>
-  </si>
-  <si>
     <t>JG_0000017</t>
-  </si>
-  <si>
-    <t>000034</t>
   </si>
   <si>
     <t>当前暴露的风险总额</t>
@@ -1957,9 +1951,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6493,11 +6484,11 @@
   <dimension ref="A1:BV552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -6833,7 +6824,7 @@
       <c r="A4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="106" t="s">
@@ -7047,7 +7038,7 @@
       <c r="A6" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="29" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="29">
@@ -7137,7 +7128,7 @@
       <c r="A7" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="29" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="29">
@@ -7243,7 +7234,7 @@
       <c r="A8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="107" t="s">
@@ -7351,7 +7342,7 @@
       <c r="A9" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="31">
@@ -7458,7 +7449,7 @@
       <c r="A10" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="31">
@@ -7565,7 +7556,7 @@
       <c r="A11" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="107" t="s">
@@ -8287,9 +8278,7 @@
       <c r="A19" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="107" t="s">
-        <v>89</v>
-      </c>
+      <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -8324,11 +8313,9 @@
     </row>
     <row r="20" ht="13" spans="1:33">
       <c r="A20" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="107" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -23003,22 +22990,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="CU1" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -23066,16 +23053,16 @@
   <sheetData>
     <row r="1" ht="24" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -6488,7 +6488,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>交易计划执行结果编码</t>
   </si>
@@ -579,7 +579,8 @@
     <t>明德生物</t>
   </si>
   <si>
-    <t>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</t>
+    <t>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场
+2.跳空时，不要入场。不然就有可能入场太早。</t>
   </si>
   <si>
     <t>JG_0000006</t>
@@ -722,6 +723,67 @@
   </si>
   <si>
     <t>振华科技</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对交易减少量缺乏关注；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对网球行为缺乏关注；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对低突破高交易量重回低位缺乏关注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
   <si>
     <t>JG_0000012</t>
@@ -6484,11 +6546,11 @@
   <dimension ref="A1:BV552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AD4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -7230,7 +7292,7 @@
       </c>
       <c r="AH7" s="100"/>
     </row>
-    <row r="8" s="13" customFormat="1" ht="36" spans="1:34">
+    <row r="8" s="13" customFormat="1" ht="60" spans="1:34">
       <c r="A8" s="27" t="s">
         <v>53</v>
       </c>
@@ -7844,7 +7906,7 @@
       </c>
       <c r="AG13" s="14"/>
     </row>
-    <row r="14" ht="14" spans="1:33">
+    <row r="14" ht="38" spans="1:33">
       <c r="A14" s="27" t="s">
         <v>74</v>
       </c>
@@ -7948,20 +8010,22 @@
         <f>(U14-F14)/O14</f>
         <v>-0.166473541908073</v>
       </c>
-      <c r="AG14" s="14"/>
+      <c r="AG14" s="103" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" ht="14" spans="1:33">
       <c r="A15" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="29">
         <v>601677</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" s="43">
         <v>44540</v>
@@ -8036,16 +8100,16 @@
     </row>
     <row r="16" ht="14" spans="1:33">
       <c r="A16" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="29">
         <v>603688</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="43">
         <v>44540</v>
@@ -8120,16 +8184,16 @@
     </row>
     <row r="17" ht="14" spans="1:33">
       <c r="A17" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" s="29">
         <v>600032</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" s="43">
         <v>44543</v>
@@ -8198,16 +8262,16 @@
     </row>
     <row r="18" ht="14" spans="1:33">
       <c r="A18" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="29">
         <v>600032</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="43">
         <v>44543</v>
@@ -8276,7 +8340,7 @@
     </row>
     <row r="19" ht="13" spans="1:33">
       <c r="A19" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -8313,7 +8377,7 @@
     </row>
     <row r="20" ht="13" spans="1:33">
       <c r="A20" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -22990,22 +23054,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CU1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -23053,16 +23117,16 @@
   <sheetData>
     <row r="1" ht="24" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>交易计划执行结果编码</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>新化股份</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>JG_0000005</t>
@@ -1690,7 +1693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1746,7 +1749,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1965,9 +1968,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6546,11 +6546,11 @@
   <dimension ref="A1:BV552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AD4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AB4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG8" sqref="AG8"/>
+      <selection pane="bottomRight" activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -6634,43 +6634,43 @@
       <c r="AE1" s="80"/>
       <c r="AF1" s="79"/>
       <c r="AG1" s="79"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
-      <c r="AW1" s="104"/>
-      <c r="AX1" s="104"/>
-      <c r="AZ1" s="104"/>
-      <c r="BA1" s="104"/>
-      <c r="BB1" s="104"/>
-      <c r="BC1" s="104"/>
-      <c r="BD1" s="104"/>
-      <c r="BE1" s="104"/>
-      <c r="BF1" s="104"/>
-      <c r="BH1" s="104"/>
-      <c r="BI1" s="104"/>
-      <c r="BJ1" s="104"/>
-      <c r="BK1" s="104"/>
-      <c r="BL1" s="104"/>
-      <c r="BM1" s="104"/>
-      <c r="BN1" s="104"/>
-      <c r="BP1" s="104"/>
-      <c r="BQ1" s="104"/>
-      <c r="BR1" s="104"/>
-      <c r="BS1" s="104"/>
-      <c r="BT1" s="104"/>
-      <c r="BU1" s="104"/>
-      <c r="BV1" s="104"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
+      <c r="AW1" s="103"/>
+      <c r="AX1" s="103"/>
+      <c r="AZ1" s="103"/>
+      <c r="BA1" s="103"/>
+      <c r="BB1" s="103"/>
+      <c r="BC1" s="103"/>
+      <c r="BD1" s="103"/>
+      <c r="BE1" s="103"/>
+      <c r="BF1" s="103"/>
+      <c r="BH1" s="103"/>
+      <c r="BI1" s="103"/>
+      <c r="BJ1" s="103"/>
+      <c r="BK1" s="103"/>
+      <c r="BL1" s="103"/>
+      <c r="BM1" s="103"/>
+      <c r="BN1" s="103"/>
+      <c r="BP1" s="103"/>
+      <c r="BQ1" s="103"/>
+      <c r="BR1" s="103"/>
+      <c r="BS1" s="103"/>
+      <c r="BT1" s="103"/>
+      <c r="BU1" s="103"/>
+      <c r="BV1" s="103"/>
     </row>
     <row r="2" ht="23.6" spans="1:74">
       <c r="A2" s="19"/>
@@ -6749,46 +6749,46 @@
       <c r="AF2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="94" t="s">
+      <c r="AG2" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="104"/>
-      <c r="AV2" s="104"/>
-      <c r="AW2" s="104"/>
-      <c r="AX2" s="104"/>
-      <c r="AZ2" s="104"/>
-      <c r="BA2" s="104"/>
-      <c r="BB2" s="104"/>
-      <c r="BC2" s="104"/>
-      <c r="BD2" s="104"/>
-      <c r="BE2" s="104"/>
-      <c r="BF2" s="104"/>
-      <c r="BH2" s="104"/>
-      <c r="BI2" s="104"/>
-      <c r="BJ2" s="104"/>
-      <c r="BK2" s="104"/>
-      <c r="BL2" s="104"/>
-      <c r="BM2" s="104"/>
-      <c r="BN2" s="104"/>
-      <c r="BP2" s="104"/>
-      <c r="BQ2" s="104"/>
-      <c r="BR2" s="104"/>
-      <c r="BS2" s="104"/>
-      <c r="BT2" s="104"/>
-      <c r="BU2" s="104"/>
-      <c r="BV2" s="104"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AQ2" s="103"/>
+      <c r="AR2" s="103"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="103"/>
+      <c r="AU2" s="103"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
+      <c r="BD2" s="103"/>
+      <c r="BE2" s="103"/>
+      <c r="BF2" s="103"/>
+      <c r="BH2" s="103"/>
+      <c r="BI2" s="103"/>
+      <c r="BJ2" s="103"/>
+      <c r="BK2" s="103"/>
+      <c r="BL2" s="103"/>
+      <c r="BM2" s="103"/>
+      <c r="BN2" s="103"/>
+      <c r="BP2" s="103"/>
+      <c r="BQ2" s="103"/>
+      <c r="BR2" s="103"/>
+      <c r="BS2" s="103"/>
+      <c r="BT2" s="103"/>
+      <c r="BU2" s="103"/>
+      <c r="BV2" s="103"/>
     </row>
     <row r="3" ht="48" spans="1:74">
       <c r="A3" s="24"/>
@@ -6843,44 +6843,44 @@
         <v>40</v>
       </c>
       <c r="AF3" s="85"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="93"/>
-      <c r="AO3" s="93"/>
-      <c r="AQ3" s="104"/>
-      <c r="AR3" s="104"/>
-      <c r="AS3" s="104"/>
-      <c r="AT3" s="104"/>
-      <c r="AU3" s="104"/>
-      <c r="AV3" s="104"/>
-      <c r="AW3" s="104"/>
-      <c r="AX3" s="104"/>
-      <c r="AZ3" s="104"/>
-      <c r="BA3" s="104"/>
-      <c r="BB3" s="104"/>
-      <c r="BC3" s="104"/>
-      <c r="BD3" s="104"/>
-      <c r="BE3" s="104"/>
-      <c r="BF3" s="104"/>
-      <c r="BH3" s="104"/>
-      <c r="BI3" s="104"/>
-      <c r="BJ3" s="104"/>
-      <c r="BK3" s="104"/>
-      <c r="BL3" s="104"/>
-      <c r="BM3" s="104"/>
-      <c r="BN3" s="104"/>
-      <c r="BP3" s="104"/>
-      <c r="BQ3" s="104"/>
-      <c r="BR3" s="104"/>
-      <c r="BS3" s="104"/>
-      <c r="BT3" s="104"/>
-      <c r="BU3" s="104"/>
-      <c r="BV3" s="104"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="92"/>
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="103"/>
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="103"/>
+      <c r="BF3" s="103"/>
+      <c r="BH3" s="103"/>
+      <c r="BI3" s="103"/>
+      <c r="BJ3" s="103"/>
+      <c r="BK3" s="103"/>
+      <c r="BL3" s="103"/>
+      <c r="BM3" s="103"/>
+      <c r="BN3" s="103"/>
+      <c r="BP3" s="103"/>
+      <c r="BQ3" s="103"/>
+      <c r="BR3" s="103"/>
+      <c r="BS3" s="103"/>
+      <c r="BT3" s="103"/>
+      <c r="BU3" s="103"/>
+      <c r="BV3" s="103"/>
     </row>
     <row r="4" s="13" customFormat="1" ht="23.6" spans="1:74">
       <c r="A4" s="27" t="s">
@@ -6889,7 +6889,7 @@
       <c r="B4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="105" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="28" t="s">
@@ -6986,46 +6986,46 @@
         <f>(U4-F4)/O4</f>
         <v>-0.20859872611465</v>
       </c>
-      <c r="AG4" s="96" t="s">
+      <c r="AG4" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="105"/>
-      <c r="AU4" s="105"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="105"/>
-      <c r="AX4" s="105"/>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="105"/>
-      <c r="BB4" s="105"/>
-      <c r="BC4" s="105"/>
-      <c r="BD4" s="105"/>
-      <c r="BE4" s="105"/>
-      <c r="BF4" s="105"/>
-      <c r="BH4" s="105"/>
-      <c r="BI4" s="105"/>
-      <c r="BJ4" s="105"/>
-      <c r="BK4" s="105"/>
-      <c r="BL4" s="105"/>
-      <c r="BM4" s="105"/>
-      <c r="BN4" s="105"/>
-      <c r="BP4" s="105"/>
-      <c r="BQ4" s="105"/>
-      <c r="BR4" s="105"/>
-      <c r="BS4" s="105"/>
-      <c r="BT4" s="105"/>
-      <c r="BU4" s="105"/>
-      <c r="BV4" s="105"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="104"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="104"/>
+      <c r="BN4" s="104"/>
+      <c r="BP4" s="104"/>
+      <c r="BQ4" s="104"/>
+      <c r="BR4" s="104"/>
+      <c r="BS4" s="104"/>
+      <c r="BT4" s="104"/>
+      <c r="BU4" s="104"/>
+      <c r="BV4" s="104"/>
     </row>
     <row r="5" s="13" customFormat="1" ht="13" spans="1:34">
       <c r="A5" s="27" t="s">
@@ -7093,8 +7093,8 @@
         <f>(U5-F4)/O4</f>
         <v>0.238853503184713</v>
       </c>
-      <c r="AG5" s="96"/>
-      <c r="AH5" s="99"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="98"/>
     </row>
     <row r="6" s="14" customFormat="1" ht="13" spans="1:34">
       <c r="A6" s="27" t="s">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="AE6" s="89"/>
       <c r="AF6" s="63"/>
-      <c r="AH6" s="100"/>
+      <c r="AH6" s="99"/>
     </row>
     <row r="7" s="14" customFormat="1" ht="13" spans="1:34">
       <c r="A7" s="27" t="s">
@@ -7282,6 +7282,9 @@
         <f>(U7-AB7)/(AA7-AB7)</f>
         <v>0.57312252964427</v>
       </c>
+      <c r="AD7" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="AE7" s="90">
         <f>Z7-J7</f>
         <v>491.0841</v>
@@ -7290,20 +7293,20 @@
         <f>(U7-F7)/O7</f>
         <v>0.569977426636569</v>
       </c>
-      <c r="AH7" s="100"/>
+      <c r="AH7" s="99"/>
     </row>
     <row r="8" s="13" customFormat="1" ht="60" spans="1:34">
       <c r="A8" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="107" t="s">
         <v>55</v>
       </c>
+      <c r="C8" s="106" t="s">
+        <v>56</v>
+      </c>
       <c r="D8" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="46">
         <v>44526</v>
@@ -7387,6 +7390,9 @@
         <f>(U8-AB8)/(AA8-AB8)</f>
         <v>0.560000000000002</v>
       </c>
+      <c r="AD8" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="AE8" s="90">
         <f>Z8-J8</f>
         <v>20.755000000001</v>
@@ -7395,23 +7401,23 @@
         <f>(U8-F8)/O8</f>
         <v>0.0299448384554775</v>
       </c>
-      <c r="AG8" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH8" s="99"/>
+      <c r="AG8" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH8" s="98"/>
     </row>
     <row r="9" s="13" customFormat="1" ht="24" spans="1:34">
       <c r="A9" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="31">
         <v>605016</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="46">
         <v>44524</v>
@@ -7494,6 +7500,9 @@
         <f>(U9-AB9)/(AA9-AB9)</f>
         <v>0.205882352941172</v>
       </c>
+      <c r="AD9" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="AE9" s="90">
         <f>Z9-J9</f>
         <v>-52.1363799999999</v>
@@ -7502,23 +7511,23 @@
         <f>(U9-F9)/O9</f>
         <v>-0.0622009569377991</v>
       </c>
-      <c r="AG9" s="102" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH9" s="99"/>
+      <c r="AG9" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH9" s="98"/>
     </row>
     <row r="10" s="14" customFormat="1" ht="13" spans="1:34">
       <c r="A10" s="27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="31">
         <v>603010</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="43">
         <v>44530</v>
@@ -7601,6 +7610,9 @@
         <f>(U10-AB10)/(AA10-AB10)</f>
         <v>0.406249999999998</v>
       </c>
+      <c r="AD10" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="AE10" s="90">
         <f>Z10-J10</f>
         <v>-210.89828</v>
@@ -7609,23 +7621,23 @@
         <f>(U10-F10)/O10</f>
         <v>-0.196428571428572</v>
       </c>
-      <c r="AG10" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH10" s="100"/>
+      <c r="AG10" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH10" s="99"/>
     </row>
     <row r="11" ht="87" spans="1:33">
       <c r="A11" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="107" t="s">
         <v>68</v>
       </c>
+      <c r="C11" s="106" t="s">
+        <v>69</v>
+      </c>
       <c r="D11" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="43">
         <v>44536</v>
@@ -7708,6 +7720,9 @@
         <f>(U11-AB11)/(AA11-AB11)</f>
         <v>0.324200913242009</v>
       </c>
+      <c r="AD11" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="AE11" s="90">
         <f>Z11-J11</f>
         <v>-179.67</v>
@@ -7716,16 +7731,16 @@
         <f>(U11-F11)/O11</f>
         <v>-0.218300653594771</v>
       </c>
-      <c r="AG11" s="103" t="s">
-        <v>70</v>
+      <c r="AG11" s="102" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" ht="14" spans="1:33">
       <c r="A12" s="27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="29">
         <v>603867</v>
@@ -7805,6 +7820,7 @@
         <f>(U12-AB12)/(AA12-AB12)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AD12" s="27"/>
       <c r="AE12" s="90">
         <v>0</v>
       </c>
@@ -7815,10 +7831,10 @@
     </row>
     <row r="13" ht="14" spans="1:33">
       <c r="A13" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>73</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>72</v>
       </c>
       <c r="C13" s="29">
         <v>603867</v>
@@ -7898,6 +7914,7 @@
         <f>(U13-AB13)/(AA13-AB13)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AD13" s="27"/>
       <c r="AE13" s="90">
         <v>0</v>
       </c>
@@ -7908,16 +7925,16 @@
     </row>
     <row r="14" ht="38" spans="1:33">
       <c r="A14" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="107" t="s">
         <v>76</v>
       </c>
+      <c r="C14" s="106" t="s">
+        <v>77</v>
+      </c>
       <c r="D14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="43">
         <v>44540</v>
@@ -8002,6 +8019,9 @@
         <f>(U14-AB14)/(AA14-AB14)</f>
         <v>0.267343485617597</v>
       </c>
+      <c r="AD14" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="AE14" s="90">
         <f>Z14-J14</f>
         <v>-454.3992</v>
@@ -8010,22 +8030,22 @@
         <f>(U14-F14)/O14</f>
         <v>-0.166473541908073</v>
       </c>
-      <c r="AG14" s="103" t="s">
-        <v>78</v>
+      <c r="AG14" s="102" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" ht="14" spans="1:33">
       <c r="A15" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="29">
         <v>601677</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" s="43">
         <v>44540</v>
@@ -8100,16 +8120,16 @@
     </row>
     <row r="16" ht="14" spans="1:33">
       <c r="A16" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" s="29">
         <v>603688</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E16" s="43">
         <v>44540</v>
@@ -8184,16 +8204,16 @@
     </row>
     <row r="17" ht="14" spans="1:33">
       <c r="A17" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" s="29">
         <v>600032</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" s="43">
         <v>44543</v>
@@ -8262,16 +8282,16 @@
     </row>
     <row r="18" ht="14" spans="1:33">
       <c r="A18" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="29">
         <v>600032</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E18" s="43">
         <v>44543</v>
@@ -8340,7 +8360,7 @@
     </row>
     <row r="19" ht="13" spans="1:33">
       <c r="A19" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -8377,7 +8397,7 @@
     </row>
     <row r="20" ht="13" spans="1:33">
       <c r="A20" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -8440,7 +8460,7 @@
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
-      <c r="AD21" s="92"/>
+      <c r="AD21" s="18"/>
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
     </row>
@@ -8472,7 +8492,7 @@
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="15"/>
-      <c r="AD22" s="92"/>
+      <c r="AD22" s="18"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
     </row>
@@ -8504,7 +8524,7 @@
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="15"/>
-      <c r="AD23" s="92"/>
+      <c r="AD23" s="18"/>
       <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
     </row>
@@ -8536,7 +8556,7 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="15"/>
-      <c r="AD24" s="92"/>
+      <c r="AD24" s="18"/>
       <c r="AE24" s="15"/>
       <c r="AF24" s="15"/>
     </row>
@@ -8568,7 +8588,7 @@
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
-      <c r="AD25" s="92"/>
+      <c r="AD25" s="18"/>
       <c r="AE25" s="15"/>
       <c r="AF25" s="15"/>
     </row>
@@ -8600,7 +8620,7 @@
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
-      <c r="AD26" s="92"/>
+      <c r="AD26" s="18"/>
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
     </row>
@@ -8632,7 +8652,7 @@
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
-      <c r="AD27" s="92"/>
+      <c r="AD27" s="18"/>
       <c r="AE27" s="15"/>
       <c r="AF27" s="15"/>
     </row>
@@ -8664,7 +8684,7 @@
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="15"/>
-      <c r="AD28" s="92"/>
+      <c r="AD28" s="18"/>
       <c r="AE28" s="15"/>
       <c r="AF28" s="15"/>
     </row>
@@ -8696,7 +8716,7 @@
       <c r="AA29" s="15"/>
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
-      <c r="AD29" s="92"/>
+      <c r="AD29" s="18"/>
       <c r="AE29" s="15"/>
       <c r="AF29" s="15"/>
     </row>
@@ -8728,7 +8748,7 @@
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
       <c r="AC30" s="15"/>
-      <c r="AD30" s="92"/>
+      <c r="AD30" s="18"/>
       <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
     </row>
@@ -8760,7 +8780,7 @@
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
       <c r="AC31" s="15"/>
-      <c r="AD31" s="92"/>
+      <c r="AD31" s="18"/>
       <c r="AE31" s="15"/>
       <c r="AF31" s="15"/>
     </row>
@@ -8792,7 +8812,7 @@
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
-      <c r="AD32" s="92"/>
+      <c r="AD32" s="18"/>
       <c r="AE32" s="15"/>
       <c r="AF32" s="15"/>
     </row>
@@ -8824,7 +8844,7 @@
       <c r="AA33" s="15"/>
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
-      <c r="AD33" s="92"/>
+      <c r="AD33" s="18"/>
       <c r="AE33" s="15"/>
       <c r="AF33" s="15"/>
     </row>
@@ -8856,7 +8876,7 @@
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
       <c r="AC34" s="15"/>
-      <c r="AD34" s="92"/>
+      <c r="AD34" s="18"/>
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
     </row>
@@ -8888,7 +8908,7 @@
       <c r="AA35" s="15"/>
       <c r="AB35" s="15"/>
       <c r="AC35" s="15"/>
-      <c r="AD35" s="92"/>
+      <c r="AD35" s="18"/>
       <c r="AE35" s="15"/>
       <c r="AF35" s="15"/>
     </row>
@@ -8920,7 +8940,7 @@
       <c r="AA36" s="15"/>
       <c r="AB36" s="15"/>
       <c r="AC36" s="15"/>
-      <c r="AD36" s="92"/>
+      <c r="AD36" s="18"/>
       <c r="AE36" s="15"/>
       <c r="AF36" s="15"/>
     </row>
@@ -8952,7 +8972,7 @@
       <c r="AA37" s="15"/>
       <c r="AB37" s="15"/>
       <c r="AC37" s="15"/>
-      <c r="AD37" s="92"/>
+      <c r="AD37" s="18"/>
       <c r="AE37" s="15"/>
       <c r="AF37" s="15"/>
     </row>
@@ -8984,7 +9004,7 @@
       <c r="AA38" s="15"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="15"/>
-      <c r="AD38" s="92"/>
+      <c r="AD38" s="18"/>
       <c r="AE38" s="15"/>
       <c r="AF38" s="15"/>
     </row>
@@ -9016,7 +9036,7 @@
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="15"/>
-      <c r="AD39" s="92"/>
+      <c r="AD39" s="18"/>
       <c r="AE39" s="15"/>
       <c r="AF39" s="15"/>
     </row>
@@ -9048,7 +9068,7 @@
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
       <c r="AC40" s="15"/>
-      <c r="AD40" s="92"/>
+      <c r="AD40" s="18"/>
       <c r="AE40" s="15"/>
       <c r="AF40" s="15"/>
     </row>
@@ -9080,7 +9100,7 @@
       <c r="AA41" s="15"/>
       <c r="AB41" s="15"/>
       <c r="AC41" s="15"/>
-      <c r="AD41" s="92"/>
+      <c r="AD41" s="18"/>
       <c r="AE41" s="15"/>
       <c r="AF41" s="15"/>
     </row>
@@ -9112,7 +9132,7 @@
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
       <c r="AC42" s="15"/>
-      <c r="AD42" s="92"/>
+      <c r="AD42" s="18"/>
       <c r="AE42" s="15"/>
       <c r="AF42" s="15"/>
     </row>
@@ -9144,7 +9164,7 @@
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
       <c r="AC43" s="15"/>
-      <c r="AD43" s="92"/>
+      <c r="AD43" s="18"/>
       <c r="AE43" s="15"/>
       <c r="AF43" s="15"/>
     </row>
@@ -9176,7 +9196,7 @@
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
       <c r="AC44" s="15"/>
-      <c r="AD44" s="92"/>
+      <c r="AD44" s="18"/>
       <c r="AE44" s="15"/>
       <c r="AF44" s="15"/>
     </row>
@@ -9208,7 +9228,7 @@
       <c r="AA45" s="15"/>
       <c r="AB45" s="15"/>
       <c r="AC45" s="15"/>
-      <c r="AD45" s="92"/>
+      <c r="AD45" s="18"/>
       <c r="AE45" s="15"/>
       <c r="AF45" s="15"/>
     </row>
@@ -9240,7 +9260,7 @@
       <c r="AA46" s="15"/>
       <c r="AB46" s="15"/>
       <c r="AC46" s="15"/>
-      <c r="AD46" s="92"/>
+      <c r="AD46" s="18"/>
       <c r="AE46" s="15"/>
       <c r="AF46" s="15"/>
     </row>
@@ -9272,7 +9292,7 @@
       <c r="AA47" s="15"/>
       <c r="AB47" s="15"/>
       <c r="AC47" s="15"/>
-      <c r="AD47" s="92"/>
+      <c r="AD47" s="18"/>
       <c r="AE47" s="15"/>
       <c r="AF47" s="15"/>
     </row>
@@ -9304,7 +9324,7 @@
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
       <c r="AC48" s="15"/>
-      <c r="AD48" s="92"/>
+      <c r="AD48" s="18"/>
       <c r="AE48" s="15"/>
       <c r="AF48" s="15"/>
     </row>
@@ -9335,7 +9355,7 @@
       <c r="AA49" s="15"/>
       <c r="AB49" s="15"/>
       <c r="AC49" s="15"/>
-      <c r="AD49" s="92"/>
+      <c r="AD49" s="18"/>
       <c r="AE49" s="15"/>
       <c r="AF49" s="15"/>
     </row>
@@ -9366,7 +9386,7 @@
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
       <c r="AC50" s="15"/>
-      <c r="AD50" s="92"/>
+      <c r="AD50" s="18"/>
       <c r="AE50" s="15"/>
       <c r="AF50" s="15"/>
     </row>
@@ -9397,7 +9417,7 @@
       <c r="AA51" s="15"/>
       <c r="AB51" s="15"/>
       <c r="AC51" s="15"/>
-      <c r="AD51" s="92"/>
+      <c r="AD51" s="18"/>
       <c r="AE51" s="15"/>
       <c r="AF51" s="15"/>
     </row>
@@ -9428,7 +9448,7 @@
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
       <c r="AC52" s="15"/>
-      <c r="AD52" s="92"/>
+      <c r="AD52" s="18"/>
       <c r="AE52" s="15"/>
       <c r="AF52" s="15"/>
     </row>
@@ -9459,7 +9479,7 @@
       <c r="AA53" s="15"/>
       <c r="AB53" s="15"/>
       <c r="AC53" s="15"/>
-      <c r="AD53" s="92"/>
+      <c r="AD53" s="18"/>
       <c r="AE53" s="15"/>
       <c r="AF53" s="15"/>
     </row>
@@ -9490,7 +9510,7 @@
       <c r="AA54" s="15"/>
       <c r="AB54" s="15"/>
       <c r="AC54" s="15"/>
-      <c r="AD54" s="92"/>
+      <c r="AD54" s="18"/>
       <c r="AE54" s="15"/>
       <c r="AF54" s="15"/>
     </row>
@@ -9521,7 +9541,7 @@
       <c r="AA55" s="15"/>
       <c r="AB55" s="15"/>
       <c r="AC55" s="15"/>
-      <c r="AD55" s="92"/>
+      <c r="AD55" s="18"/>
       <c r="AE55" s="15"/>
       <c r="AF55" s="15"/>
     </row>
@@ -9552,7 +9572,7 @@
       <c r="AA56" s="15"/>
       <c r="AB56" s="15"/>
       <c r="AC56" s="15"/>
-      <c r="AD56" s="92"/>
+      <c r="AD56" s="18"/>
       <c r="AE56" s="15"/>
       <c r="AF56" s="15"/>
     </row>
@@ -9583,7 +9603,7 @@
       <c r="AA57" s="15"/>
       <c r="AB57" s="15"/>
       <c r="AC57" s="15"/>
-      <c r="AD57" s="92"/>
+      <c r="AD57" s="18"/>
       <c r="AE57" s="15"/>
       <c r="AF57" s="15"/>
     </row>
@@ -9614,7 +9634,7 @@
       <c r="AA58" s="15"/>
       <c r="AB58" s="15"/>
       <c r="AC58" s="15"/>
-      <c r="AD58" s="92"/>
+      <c r="AD58" s="18"/>
       <c r="AE58" s="15"/>
       <c r="AF58" s="15"/>
     </row>
@@ -9645,7 +9665,7 @@
       <c r="AA59" s="15"/>
       <c r="AB59" s="15"/>
       <c r="AC59" s="15"/>
-      <c r="AD59" s="92"/>
+      <c r="AD59" s="18"/>
       <c r="AE59" s="15"/>
       <c r="AF59" s="15"/>
     </row>
@@ -9676,7 +9696,7 @@
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
       <c r="AC60" s="15"/>
-      <c r="AD60" s="92"/>
+      <c r="AD60" s="18"/>
       <c r="AE60" s="15"/>
       <c r="AF60" s="15"/>
     </row>
@@ -9707,7 +9727,7 @@
       <c r="AA61" s="15"/>
       <c r="AB61" s="15"/>
       <c r="AC61" s="15"/>
-      <c r="AD61" s="92"/>
+      <c r="AD61" s="18"/>
       <c r="AE61" s="15"/>
       <c r="AF61" s="15"/>
     </row>
@@ -9738,7 +9758,7 @@
       <c r="AA62" s="15"/>
       <c r="AB62" s="15"/>
       <c r="AC62" s="15"/>
-      <c r="AD62" s="92"/>
+      <c r="AD62" s="18"/>
       <c r="AE62" s="15"/>
       <c r="AF62" s="15"/>
     </row>
@@ -9769,7 +9789,7 @@
       <c r="AA63" s="15"/>
       <c r="AB63" s="15"/>
       <c r="AC63" s="15"/>
-      <c r="AD63" s="92"/>
+      <c r="AD63" s="18"/>
       <c r="AE63" s="15"/>
       <c r="AF63" s="15"/>
     </row>
@@ -9800,7 +9820,7 @@
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
       <c r="AC64" s="15"/>
-      <c r="AD64" s="92"/>
+      <c r="AD64" s="18"/>
       <c r="AE64" s="15"/>
       <c r="AF64" s="15"/>
     </row>
@@ -9831,7 +9851,7 @@
       <c r="AA65" s="15"/>
       <c r="AB65" s="15"/>
       <c r="AC65" s="15"/>
-      <c r="AD65" s="92"/>
+      <c r="AD65" s="18"/>
       <c r="AE65" s="15"/>
       <c r="AF65" s="15"/>
     </row>
@@ -9862,7 +9882,7 @@
       <c r="AA66" s="15"/>
       <c r="AB66" s="15"/>
       <c r="AC66" s="15"/>
-      <c r="AD66" s="92"/>
+      <c r="AD66" s="18"/>
       <c r="AE66" s="15"/>
       <c r="AF66" s="15"/>
     </row>
@@ -9893,7 +9913,7 @@
       <c r="AA67" s="15"/>
       <c r="AB67" s="15"/>
       <c r="AC67" s="15"/>
-      <c r="AD67" s="92"/>
+      <c r="AD67" s="18"/>
       <c r="AE67" s="15"/>
       <c r="AF67" s="15"/>
     </row>
@@ -9924,7 +9944,7 @@
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
       <c r="AC68" s="15"/>
-      <c r="AD68" s="92"/>
+      <c r="AD68" s="18"/>
       <c r="AE68" s="15"/>
       <c r="AF68" s="15"/>
     </row>
@@ -9955,7 +9975,7 @@
       <c r="AA69" s="15"/>
       <c r="AB69" s="15"/>
       <c r="AC69" s="15"/>
-      <c r="AD69" s="92"/>
+      <c r="AD69" s="18"/>
       <c r="AE69" s="15"/>
       <c r="AF69" s="15"/>
     </row>
@@ -9986,7 +10006,7 @@
       <c r="AA70" s="15"/>
       <c r="AB70" s="15"/>
       <c r="AC70" s="15"/>
-      <c r="AD70" s="92"/>
+      <c r="AD70" s="18"/>
       <c r="AE70" s="15"/>
       <c r="AF70" s="15"/>
     </row>
@@ -10017,7 +10037,7 @@
       <c r="AA71" s="15"/>
       <c r="AB71" s="15"/>
       <c r="AC71" s="15"/>
-      <c r="AD71" s="92"/>
+      <c r="AD71" s="18"/>
       <c r="AE71" s="15"/>
       <c r="AF71" s="15"/>
     </row>
@@ -10048,7 +10068,7 @@
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
       <c r="AC72" s="15"/>
-      <c r="AD72" s="92"/>
+      <c r="AD72" s="18"/>
       <c r="AE72" s="15"/>
       <c r="AF72" s="15"/>
     </row>
@@ -10079,7 +10099,7 @@
       <c r="AA73" s="15"/>
       <c r="AB73" s="15"/>
       <c r="AC73" s="15"/>
-      <c r="AD73" s="92"/>
+      <c r="AD73" s="18"/>
       <c r="AE73" s="15"/>
       <c r="AF73" s="15"/>
     </row>
@@ -10110,7 +10130,7 @@
       <c r="AA74" s="15"/>
       <c r="AB74" s="15"/>
       <c r="AC74" s="15"/>
-      <c r="AD74" s="92"/>
+      <c r="AD74" s="18"/>
       <c r="AE74" s="15"/>
       <c r="AF74" s="15"/>
     </row>
@@ -10141,7 +10161,7 @@
       <c r="AA75" s="15"/>
       <c r="AB75" s="15"/>
       <c r="AC75" s="15"/>
-      <c r="AD75" s="92"/>
+      <c r="AD75" s="18"/>
       <c r="AE75" s="15"/>
       <c r="AF75" s="15"/>
     </row>
@@ -10172,7 +10192,7 @@
       <c r="AA76" s="15"/>
       <c r="AB76" s="15"/>
       <c r="AC76" s="15"/>
-      <c r="AD76" s="92"/>
+      <c r="AD76" s="18"/>
       <c r="AE76" s="15"/>
       <c r="AF76" s="15"/>
     </row>
@@ -10203,7 +10223,7 @@
       <c r="AA77" s="15"/>
       <c r="AB77" s="15"/>
       <c r="AC77" s="15"/>
-      <c r="AD77" s="92"/>
+      <c r="AD77" s="18"/>
       <c r="AE77" s="15"/>
       <c r="AF77" s="15"/>
     </row>
@@ -10234,7 +10254,7 @@
       <c r="AA78" s="15"/>
       <c r="AB78" s="15"/>
       <c r="AC78" s="15"/>
-      <c r="AD78" s="92"/>
+      <c r="AD78" s="18"/>
       <c r="AE78" s="15"/>
       <c r="AF78" s="15"/>
     </row>
@@ -10265,7 +10285,7 @@
       <c r="AA79" s="15"/>
       <c r="AB79" s="15"/>
       <c r="AC79" s="15"/>
-      <c r="AD79" s="92"/>
+      <c r="AD79" s="18"/>
       <c r="AE79" s="15"/>
       <c r="AF79" s="15"/>
     </row>
@@ -10296,7 +10316,7 @@
       <c r="AA80" s="15"/>
       <c r="AB80" s="15"/>
       <c r="AC80" s="15"/>
-      <c r="AD80" s="92"/>
+      <c r="AD80" s="18"/>
       <c r="AE80" s="15"/>
       <c r="AF80" s="15"/>
     </row>
@@ -10327,7 +10347,7 @@
       <c r="AA81" s="15"/>
       <c r="AB81" s="15"/>
       <c r="AC81" s="15"/>
-      <c r="AD81" s="92"/>
+      <c r="AD81" s="18"/>
       <c r="AE81" s="15"/>
       <c r="AF81" s="15"/>
     </row>
@@ -10358,7 +10378,7 @@
       <c r="AA82" s="15"/>
       <c r="AB82" s="15"/>
       <c r="AC82" s="15"/>
-      <c r="AD82" s="92"/>
+      <c r="AD82" s="18"/>
       <c r="AE82" s="15"/>
       <c r="AF82" s="15"/>
     </row>
@@ -10389,7 +10409,7 @@
       <c r="AA83" s="15"/>
       <c r="AB83" s="15"/>
       <c r="AC83" s="15"/>
-      <c r="AD83" s="92"/>
+      <c r="AD83" s="18"/>
       <c r="AE83" s="15"/>
       <c r="AF83" s="15"/>
     </row>
@@ -10420,7 +10440,7 @@
       <c r="AA84" s="15"/>
       <c r="AB84" s="15"/>
       <c r="AC84" s="15"/>
-      <c r="AD84" s="92"/>
+      <c r="AD84" s="18"/>
       <c r="AE84" s="15"/>
       <c r="AF84" s="15"/>
     </row>
@@ -10451,7 +10471,7 @@
       <c r="AA85" s="15"/>
       <c r="AB85" s="15"/>
       <c r="AC85" s="15"/>
-      <c r="AD85" s="92"/>
+      <c r="AD85" s="18"/>
       <c r="AE85" s="15"/>
       <c r="AF85" s="15"/>
     </row>
@@ -10482,7 +10502,7 @@
       <c r="AA86" s="15"/>
       <c r="AB86" s="15"/>
       <c r="AC86" s="15"/>
-      <c r="AD86" s="92"/>
+      <c r="AD86" s="18"/>
       <c r="AE86" s="15"/>
       <c r="AF86" s="15"/>
     </row>
@@ -10513,7 +10533,7 @@
       <c r="AA87" s="15"/>
       <c r="AB87" s="15"/>
       <c r="AC87" s="15"/>
-      <c r="AD87" s="92"/>
+      <c r="AD87" s="18"/>
       <c r="AE87" s="15"/>
       <c r="AF87" s="15"/>
     </row>
@@ -10544,7 +10564,7 @@
       <c r="AA88" s="15"/>
       <c r="AB88" s="15"/>
       <c r="AC88" s="15"/>
-      <c r="AD88" s="92"/>
+      <c r="AD88" s="18"/>
       <c r="AE88" s="15"/>
       <c r="AF88" s="15"/>
     </row>
@@ -10575,7 +10595,7 @@
       <c r="AA89" s="15"/>
       <c r="AB89" s="15"/>
       <c r="AC89" s="15"/>
-      <c r="AD89" s="92"/>
+      <c r="AD89" s="18"/>
       <c r="AE89" s="15"/>
       <c r="AF89" s="15"/>
     </row>
@@ -10606,7 +10626,7 @@
       <c r="AA90" s="15"/>
       <c r="AB90" s="15"/>
       <c r="AC90" s="15"/>
-      <c r="AD90" s="92"/>
+      <c r="AD90" s="18"/>
       <c r="AE90" s="15"/>
       <c r="AF90" s="15"/>
     </row>
@@ -10637,7 +10657,7 @@
       <c r="AA91" s="15"/>
       <c r="AB91" s="15"/>
       <c r="AC91" s="15"/>
-      <c r="AD91" s="92"/>
+      <c r="AD91" s="18"/>
       <c r="AE91" s="15"/>
       <c r="AF91" s="15"/>
     </row>
@@ -10668,7 +10688,7 @@
       <c r="AA92" s="15"/>
       <c r="AB92" s="15"/>
       <c r="AC92" s="15"/>
-      <c r="AD92" s="92"/>
+      <c r="AD92" s="18"/>
       <c r="AE92" s="15"/>
       <c r="AF92" s="15"/>
     </row>
@@ -10699,7 +10719,7 @@
       <c r="AA93" s="15"/>
       <c r="AB93" s="15"/>
       <c r="AC93" s="15"/>
-      <c r="AD93" s="92"/>
+      <c r="AD93" s="18"/>
       <c r="AE93" s="15"/>
       <c r="AF93" s="15"/>
     </row>
@@ -10730,7 +10750,7 @@
       <c r="AA94" s="15"/>
       <c r="AB94" s="15"/>
       <c r="AC94" s="15"/>
-      <c r="AD94" s="92"/>
+      <c r="AD94" s="18"/>
       <c r="AE94" s="15"/>
       <c r="AF94" s="15"/>
     </row>
@@ -10761,7 +10781,7 @@
       <c r="AA95" s="15"/>
       <c r="AB95" s="15"/>
       <c r="AC95" s="15"/>
-      <c r="AD95" s="92"/>
+      <c r="AD95" s="18"/>
       <c r="AE95" s="15"/>
       <c r="AF95" s="15"/>
     </row>
@@ -10792,7 +10812,7 @@
       <c r="AA96" s="15"/>
       <c r="AB96" s="15"/>
       <c r="AC96" s="15"/>
-      <c r="AD96" s="92"/>
+      <c r="AD96" s="18"/>
       <c r="AE96" s="15"/>
       <c r="AF96" s="15"/>
     </row>
@@ -10823,7 +10843,7 @@
       <c r="AA97" s="15"/>
       <c r="AB97" s="15"/>
       <c r="AC97" s="15"/>
-      <c r="AD97" s="92"/>
+      <c r="AD97" s="18"/>
       <c r="AE97" s="15"/>
       <c r="AF97" s="15"/>
     </row>
@@ -10854,7 +10874,7 @@
       <c r="AA98" s="15"/>
       <c r="AB98" s="15"/>
       <c r="AC98" s="15"/>
-      <c r="AD98" s="92"/>
+      <c r="AD98" s="18"/>
       <c r="AE98" s="15"/>
       <c r="AF98" s="15"/>
     </row>
@@ -10885,7 +10905,7 @@
       <c r="AA99" s="15"/>
       <c r="AB99" s="15"/>
       <c r="AC99" s="15"/>
-      <c r="AD99" s="92"/>
+      <c r="AD99" s="18"/>
       <c r="AE99" s="15"/>
       <c r="AF99" s="15"/>
     </row>
@@ -10916,7 +10936,7 @@
       <c r="AA100" s="15"/>
       <c r="AB100" s="15"/>
       <c r="AC100" s="15"/>
-      <c r="AD100" s="92"/>
+      <c r="AD100" s="18"/>
       <c r="AE100" s="15"/>
       <c r="AF100" s="15"/>
     </row>
@@ -10947,7 +10967,7 @@
       <c r="AA101" s="15"/>
       <c r="AB101" s="15"/>
       <c r="AC101" s="15"/>
-      <c r="AD101" s="92"/>
+      <c r="AD101" s="18"/>
       <c r="AE101" s="15"/>
       <c r="AF101" s="15"/>
     </row>
@@ -10978,7 +10998,7 @@
       <c r="AA102" s="15"/>
       <c r="AB102" s="15"/>
       <c r="AC102" s="15"/>
-      <c r="AD102" s="92"/>
+      <c r="AD102" s="18"/>
       <c r="AE102" s="15"/>
       <c r="AF102" s="15"/>
     </row>
@@ -11009,7 +11029,7 @@
       <c r="AA103" s="15"/>
       <c r="AB103" s="15"/>
       <c r="AC103" s="15"/>
-      <c r="AD103" s="92"/>
+      <c r="AD103" s="18"/>
       <c r="AE103" s="15"/>
       <c r="AF103" s="15"/>
     </row>
@@ -11040,7 +11060,7 @@
       <c r="AA104" s="15"/>
       <c r="AB104" s="15"/>
       <c r="AC104" s="15"/>
-      <c r="AD104" s="92"/>
+      <c r="AD104" s="18"/>
       <c r="AE104" s="15"/>
       <c r="AF104" s="15"/>
     </row>
@@ -11071,7 +11091,7 @@
       <c r="AA105" s="15"/>
       <c r="AB105" s="15"/>
       <c r="AC105" s="15"/>
-      <c r="AD105" s="92"/>
+      <c r="AD105" s="18"/>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
     </row>
@@ -11102,7 +11122,7 @@
       <c r="AA106" s="15"/>
       <c r="AB106" s="15"/>
       <c r="AC106" s="15"/>
-      <c r="AD106" s="92"/>
+      <c r="AD106" s="18"/>
       <c r="AE106" s="15"/>
       <c r="AF106" s="15"/>
     </row>
@@ -11133,7 +11153,7 @@
       <c r="AA107" s="15"/>
       <c r="AB107" s="15"/>
       <c r="AC107" s="15"/>
-      <c r="AD107" s="92"/>
+      <c r="AD107" s="18"/>
       <c r="AE107" s="15"/>
       <c r="AF107" s="15"/>
     </row>
@@ -11164,7 +11184,7 @@
       <c r="AA108" s="15"/>
       <c r="AB108" s="15"/>
       <c r="AC108" s="15"/>
-      <c r="AD108" s="92"/>
+      <c r="AD108" s="18"/>
       <c r="AE108" s="15"/>
       <c r="AF108" s="15"/>
     </row>
@@ -11195,7 +11215,7 @@
       <c r="AA109" s="15"/>
       <c r="AB109" s="15"/>
       <c r="AC109" s="15"/>
-      <c r="AD109" s="92"/>
+      <c r="AD109" s="18"/>
       <c r="AE109" s="15"/>
       <c r="AF109" s="15"/>
     </row>
@@ -11226,7 +11246,7 @@
       <c r="AA110" s="15"/>
       <c r="AB110" s="15"/>
       <c r="AC110" s="15"/>
-      <c r="AD110" s="92"/>
+      <c r="AD110" s="18"/>
       <c r="AE110" s="15"/>
       <c r="AF110" s="15"/>
     </row>
@@ -11257,7 +11277,7 @@
       <c r="AA111" s="15"/>
       <c r="AB111" s="15"/>
       <c r="AC111" s="15"/>
-      <c r="AD111" s="92"/>
+      <c r="AD111" s="18"/>
       <c r="AE111" s="15"/>
       <c r="AF111" s="15"/>
     </row>
@@ -11288,7 +11308,7 @@
       <c r="AA112" s="15"/>
       <c r="AB112" s="15"/>
       <c r="AC112" s="15"/>
-      <c r="AD112" s="92"/>
+      <c r="AD112" s="18"/>
       <c r="AE112" s="15"/>
       <c r="AF112" s="15"/>
     </row>
@@ -11319,7 +11339,7 @@
       <c r="AA113" s="15"/>
       <c r="AB113" s="15"/>
       <c r="AC113" s="15"/>
-      <c r="AD113" s="92"/>
+      <c r="AD113" s="18"/>
       <c r="AE113" s="15"/>
       <c r="AF113" s="15"/>
     </row>
@@ -11350,7 +11370,7 @@
       <c r="AA114" s="15"/>
       <c r="AB114" s="15"/>
       <c r="AC114" s="15"/>
-      <c r="AD114" s="92"/>
+      <c r="AD114" s="18"/>
       <c r="AE114" s="15"/>
       <c r="AF114" s="15"/>
     </row>
@@ -11381,7 +11401,7 @@
       <c r="AA115" s="15"/>
       <c r="AB115" s="15"/>
       <c r="AC115" s="15"/>
-      <c r="AD115" s="92"/>
+      <c r="AD115" s="18"/>
       <c r="AE115" s="15"/>
       <c r="AF115" s="15"/>
     </row>
@@ -11412,7 +11432,7 @@
       <c r="AA116" s="15"/>
       <c r="AB116" s="15"/>
       <c r="AC116" s="15"/>
-      <c r="AD116" s="92"/>
+      <c r="AD116" s="18"/>
       <c r="AE116" s="15"/>
       <c r="AF116" s="15"/>
     </row>
@@ -11443,7 +11463,7 @@
       <c r="AA117" s="15"/>
       <c r="AB117" s="15"/>
       <c r="AC117" s="15"/>
-      <c r="AD117" s="92"/>
+      <c r="AD117" s="18"/>
       <c r="AE117" s="15"/>
       <c r="AF117" s="15"/>
     </row>
@@ -11474,7 +11494,7 @@
       <c r="AA118" s="15"/>
       <c r="AB118" s="15"/>
       <c r="AC118" s="15"/>
-      <c r="AD118" s="92"/>
+      <c r="AD118" s="18"/>
       <c r="AE118" s="15"/>
       <c r="AF118" s="15"/>
     </row>
@@ -11505,7 +11525,7 @@
       <c r="AA119" s="15"/>
       <c r="AB119" s="15"/>
       <c r="AC119" s="15"/>
-      <c r="AD119" s="92"/>
+      <c r="AD119" s="18"/>
       <c r="AE119" s="15"/>
       <c r="AF119" s="15"/>
     </row>
@@ -11536,7 +11556,7 @@
       <c r="AA120" s="15"/>
       <c r="AB120" s="15"/>
       <c r="AC120" s="15"/>
-      <c r="AD120" s="92"/>
+      <c r="AD120" s="18"/>
       <c r="AE120" s="15"/>
       <c r="AF120" s="15"/>
     </row>
@@ -11567,7 +11587,7 @@
       <c r="AA121" s="15"/>
       <c r="AB121" s="15"/>
       <c r="AC121" s="15"/>
-      <c r="AD121" s="92"/>
+      <c r="AD121" s="18"/>
       <c r="AE121" s="15"/>
       <c r="AF121" s="15"/>
     </row>
@@ -11598,7 +11618,7 @@
       <c r="AA122" s="15"/>
       <c r="AB122" s="15"/>
       <c r="AC122" s="15"/>
-      <c r="AD122" s="92"/>
+      <c r="AD122" s="18"/>
       <c r="AE122" s="15"/>
       <c r="AF122" s="15"/>
     </row>
@@ -11629,7 +11649,7 @@
       <c r="AA123" s="15"/>
       <c r="AB123" s="15"/>
       <c r="AC123" s="15"/>
-      <c r="AD123" s="92"/>
+      <c r="AD123" s="18"/>
       <c r="AE123" s="15"/>
       <c r="AF123" s="15"/>
     </row>
@@ -11660,7 +11680,7 @@
       <c r="AA124" s="15"/>
       <c r="AB124" s="15"/>
       <c r="AC124" s="15"/>
-      <c r="AD124" s="92"/>
+      <c r="AD124" s="18"/>
       <c r="AE124" s="15"/>
       <c r="AF124" s="15"/>
     </row>
@@ -11691,7 +11711,7 @@
       <c r="AA125" s="15"/>
       <c r="AB125" s="15"/>
       <c r="AC125" s="15"/>
-      <c r="AD125" s="92"/>
+      <c r="AD125" s="18"/>
       <c r="AE125" s="15"/>
       <c r="AF125" s="15"/>
     </row>
@@ -11722,7 +11742,7 @@
       <c r="AA126" s="15"/>
       <c r="AB126" s="15"/>
       <c r="AC126" s="15"/>
-      <c r="AD126" s="92"/>
+      <c r="AD126" s="18"/>
       <c r="AE126" s="15"/>
       <c r="AF126" s="15"/>
     </row>
@@ -11753,7 +11773,7 @@
       <c r="AA127" s="15"/>
       <c r="AB127" s="15"/>
       <c r="AC127" s="15"/>
-      <c r="AD127" s="92"/>
+      <c r="AD127" s="18"/>
       <c r="AE127" s="15"/>
       <c r="AF127" s="15"/>
     </row>
@@ -11784,7 +11804,7 @@
       <c r="AA128" s="15"/>
       <c r="AB128" s="15"/>
       <c r="AC128" s="15"/>
-      <c r="AD128" s="92"/>
+      <c r="AD128" s="18"/>
       <c r="AE128" s="15"/>
       <c r="AF128" s="15"/>
     </row>
@@ -11815,7 +11835,7 @@
       <c r="AA129" s="15"/>
       <c r="AB129" s="15"/>
       <c r="AC129" s="15"/>
-      <c r="AD129" s="92"/>
+      <c r="AD129" s="18"/>
       <c r="AE129" s="15"/>
       <c r="AF129" s="15"/>
     </row>
@@ -11846,7 +11866,7 @@
       <c r="AA130" s="15"/>
       <c r="AB130" s="15"/>
       <c r="AC130" s="15"/>
-      <c r="AD130" s="92"/>
+      <c r="AD130" s="18"/>
       <c r="AE130" s="15"/>
       <c r="AF130" s="15"/>
     </row>
@@ -11877,7 +11897,7 @@
       <c r="AA131" s="15"/>
       <c r="AB131" s="15"/>
       <c r="AC131" s="15"/>
-      <c r="AD131" s="92"/>
+      <c r="AD131" s="18"/>
       <c r="AE131" s="15"/>
       <c r="AF131" s="15"/>
     </row>
@@ -11908,7 +11928,7 @@
       <c r="AA132" s="15"/>
       <c r="AB132" s="15"/>
       <c r="AC132" s="15"/>
-      <c r="AD132" s="92"/>
+      <c r="AD132" s="18"/>
       <c r="AE132" s="15"/>
       <c r="AF132" s="15"/>
     </row>
@@ -11939,7 +11959,7 @@
       <c r="AA133" s="15"/>
       <c r="AB133" s="15"/>
       <c r="AC133" s="15"/>
-      <c r="AD133" s="92"/>
+      <c r="AD133" s="18"/>
       <c r="AE133" s="15"/>
       <c r="AF133" s="15"/>
     </row>
@@ -11970,7 +11990,7 @@
       <c r="AA134" s="15"/>
       <c r="AB134" s="15"/>
       <c r="AC134" s="15"/>
-      <c r="AD134" s="92"/>
+      <c r="AD134" s="18"/>
       <c r="AE134" s="15"/>
       <c r="AF134" s="15"/>
     </row>
@@ -12001,7 +12021,7 @@
       <c r="AA135" s="15"/>
       <c r="AB135" s="15"/>
       <c r="AC135" s="15"/>
-      <c r="AD135" s="92"/>
+      <c r="AD135" s="18"/>
       <c r="AE135" s="15"/>
       <c r="AF135" s="15"/>
     </row>
@@ -12032,7 +12052,7 @@
       <c r="AA136" s="15"/>
       <c r="AB136" s="15"/>
       <c r="AC136" s="15"/>
-      <c r="AD136" s="92"/>
+      <c r="AD136" s="18"/>
       <c r="AE136" s="15"/>
       <c r="AF136" s="15"/>
     </row>
@@ -12063,7 +12083,7 @@
       <c r="AA137" s="15"/>
       <c r="AB137" s="15"/>
       <c r="AC137" s="15"/>
-      <c r="AD137" s="92"/>
+      <c r="AD137" s="18"/>
       <c r="AE137" s="15"/>
       <c r="AF137" s="15"/>
     </row>
@@ -12094,7 +12114,7 @@
       <c r="AA138" s="15"/>
       <c r="AB138" s="15"/>
       <c r="AC138" s="15"/>
-      <c r="AD138" s="92"/>
+      <c r="AD138" s="18"/>
       <c r="AE138" s="15"/>
       <c r="AF138" s="15"/>
     </row>
@@ -12125,7 +12145,7 @@
       <c r="AA139" s="15"/>
       <c r="AB139" s="15"/>
       <c r="AC139" s="15"/>
-      <c r="AD139" s="92"/>
+      <c r="AD139" s="18"/>
       <c r="AE139" s="15"/>
       <c r="AF139" s="15"/>
     </row>
@@ -12156,7 +12176,7 @@
       <c r="AA140" s="15"/>
       <c r="AB140" s="15"/>
       <c r="AC140" s="15"/>
-      <c r="AD140" s="92"/>
+      <c r="AD140" s="18"/>
       <c r="AE140" s="15"/>
       <c r="AF140" s="15"/>
     </row>
@@ -12187,7 +12207,7 @@
       <c r="AA141" s="15"/>
       <c r="AB141" s="15"/>
       <c r="AC141" s="15"/>
-      <c r="AD141" s="92"/>
+      <c r="AD141" s="18"/>
       <c r="AE141" s="15"/>
       <c r="AF141" s="15"/>
     </row>
@@ -12218,7 +12238,7 @@
       <c r="AA142" s="15"/>
       <c r="AB142" s="15"/>
       <c r="AC142" s="15"/>
-      <c r="AD142" s="92"/>
+      <c r="AD142" s="18"/>
       <c r="AE142" s="15"/>
       <c r="AF142" s="15"/>
     </row>
@@ -12249,7 +12269,7 @@
       <c r="AA143" s="15"/>
       <c r="AB143" s="15"/>
       <c r="AC143" s="15"/>
-      <c r="AD143" s="92"/>
+      <c r="AD143" s="18"/>
       <c r="AE143" s="15"/>
       <c r="AF143" s="15"/>
     </row>
@@ -12280,7 +12300,7 @@
       <c r="AA144" s="15"/>
       <c r="AB144" s="15"/>
       <c r="AC144" s="15"/>
-      <c r="AD144" s="92"/>
+      <c r="AD144" s="18"/>
       <c r="AE144" s="15"/>
       <c r="AF144" s="15"/>
     </row>
@@ -12311,7 +12331,7 @@
       <c r="AA145" s="15"/>
       <c r="AB145" s="15"/>
       <c r="AC145" s="15"/>
-      <c r="AD145" s="92"/>
+      <c r="AD145" s="18"/>
       <c r="AE145" s="15"/>
       <c r="AF145" s="15"/>
     </row>
@@ -12342,7 +12362,7 @@
       <c r="AA146" s="15"/>
       <c r="AB146" s="15"/>
       <c r="AC146" s="15"/>
-      <c r="AD146" s="92"/>
+      <c r="AD146" s="18"/>
       <c r="AE146" s="15"/>
       <c r="AF146" s="15"/>
     </row>
@@ -12373,7 +12393,7 @@
       <c r="AA147" s="15"/>
       <c r="AB147" s="15"/>
       <c r="AC147" s="15"/>
-      <c r="AD147" s="92"/>
+      <c r="AD147" s="18"/>
       <c r="AE147" s="15"/>
       <c r="AF147" s="15"/>
     </row>
@@ -12404,7 +12424,7 @@
       <c r="AA148" s="15"/>
       <c r="AB148" s="15"/>
       <c r="AC148" s="15"/>
-      <c r="AD148" s="92"/>
+      <c r="AD148" s="18"/>
       <c r="AE148" s="15"/>
       <c r="AF148" s="15"/>
     </row>
@@ -12435,7 +12455,7 @@
       <c r="AA149" s="15"/>
       <c r="AB149" s="15"/>
       <c r="AC149" s="15"/>
-      <c r="AD149" s="92"/>
+      <c r="AD149" s="18"/>
       <c r="AE149" s="15"/>
       <c r="AF149" s="15"/>
     </row>
@@ -12466,7 +12486,7 @@
       <c r="AA150" s="15"/>
       <c r="AB150" s="15"/>
       <c r="AC150" s="15"/>
-      <c r="AD150" s="92"/>
+      <c r="AD150" s="18"/>
       <c r="AE150" s="15"/>
       <c r="AF150" s="15"/>
     </row>
@@ -12497,7 +12517,7 @@
       <c r="AA151" s="15"/>
       <c r="AB151" s="15"/>
       <c r="AC151" s="15"/>
-      <c r="AD151" s="92"/>
+      <c r="AD151" s="18"/>
       <c r="AE151" s="15"/>
       <c r="AF151" s="15"/>
     </row>
@@ -12528,7 +12548,7 @@
       <c r="AA152" s="15"/>
       <c r="AB152" s="15"/>
       <c r="AC152" s="15"/>
-      <c r="AD152" s="92"/>
+      <c r="AD152" s="18"/>
       <c r="AE152" s="15"/>
       <c r="AF152" s="15"/>
     </row>
@@ -12559,7 +12579,7 @@
       <c r="AA153" s="15"/>
       <c r="AB153" s="15"/>
       <c r="AC153" s="15"/>
-      <c r="AD153" s="92"/>
+      <c r="AD153" s="18"/>
       <c r="AE153" s="15"/>
       <c r="AF153" s="15"/>
     </row>
@@ -12590,7 +12610,7 @@
       <c r="AA154" s="15"/>
       <c r="AB154" s="15"/>
       <c r="AC154" s="15"/>
-      <c r="AD154" s="92"/>
+      <c r="AD154" s="18"/>
       <c r="AE154" s="15"/>
       <c r="AF154" s="15"/>
     </row>
@@ -12621,7 +12641,7 @@
       <c r="AA155" s="15"/>
       <c r="AB155" s="15"/>
       <c r="AC155" s="15"/>
-      <c r="AD155" s="92"/>
+      <c r="AD155" s="18"/>
       <c r="AE155" s="15"/>
       <c r="AF155" s="15"/>
     </row>
@@ -12652,7 +12672,7 @@
       <c r="AA156" s="15"/>
       <c r="AB156" s="15"/>
       <c r="AC156" s="15"/>
-      <c r="AD156" s="92"/>
+      <c r="AD156" s="18"/>
       <c r="AE156" s="15"/>
       <c r="AF156" s="15"/>
     </row>
@@ -12683,7 +12703,7 @@
       <c r="AA157" s="15"/>
       <c r="AB157" s="15"/>
       <c r="AC157" s="15"/>
-      <c r="AD157" s="92"/>
+      <c r="AD157" s="18"/>
       <c r="AE157" s="15"/>
       <c r="AF157" s="15"/>
     </row>
@@ -12714,7 +12734,7 @@
       <c r="AA158" s="15"/>
       <c r="AB158" s="15"/>
       <c r="AC158" s="15"/>
-      <c r="AD158" s="92"/>
+      <c r="AD158" s="18"/>
       <c r="AE158" s="15"/>
       <c r="AF158" s="15"/>
     </row>
@@ -12745,7 +12765,7 @@
       <c r="AA159" s="15"/>
       <c r="AB159" s="15"/>
       <c r="AC159" s="15"/>
-      <c r="AD159" s="92"/>
+      <c r="AD159" s="18"/>
       <c r="AE159" s="15"/>
       <c r="AF159" s="15"/>
     </row>
@@ -12776,7 +12796,7 @@
       <c r="AA160" s="15"/>
       <c r="AB160" s="15"/>
       <c r="AC160" s="15"/>
-      <c r="AD160" s="92"/>
+      <c r="AD160" s="18"/>
       <c r="AE160" s="15"/>
       <c r="AF160" s="15"/>
     </row>
@@ -12807,7 +12827,7 @@
       <c r="AA161" s="15"/>
       <c r="AB161" s="15"/>
       <c r="AC161" s="15"/>
-      <c r="AD161" s="92"/>
+      <c r="AD161" s="18"/>
       <c r="AE161" s="15"/>
       <c r="AF161" s="15"/>
     </row>
@@ -12838,7 +12858,7 @@
       <c r="AA162" s="15"/>
       <c r="AB162" s="15"/>
       <c r="AC162" s="15"/>
-      <c r="AD162" s="92"/>
+      <c r="AD162" s="18"/>
       <c r="AE162" s="15"/>
       <c r="AF162" s="15"/>
     </row>
@@ -12869,7 +12889,7 @@
       <c r="AA163" s="15"/>
       <c r="AB163" s="15"/>
       <c r="AC163" s="15"/>
-      <c r="AD163" s="92"/>
+      <c r="AD163" s="18"/>
       <c r="AE163" s="15"/>
       <c r="AF163" s="15"/>
     </row>
@@ -12900,7 +12920,7 @@
       <c r="AA164" s="15"/>
       <c r="AB164" s="15"/>
       <c r="AC164" s="15"/>
-      <c r="AD164" s="92"/>
+      <c r="AD164" s="18"/>
       <c r="AE164" s="15"/>
       <c r="AF164" s="15"/>
     </row>
@@ -12931,7 +12951,7 @@
       <c r="AA165" s="15"/>
       <c r="AB165" s="15"/>
       <c r="AC165" s="15"/>
-      <c r="AD165" s="92"/>
+      <c r="AD165" s="18"/>
       <c r="AE165" s="15"/>
       <c r="AF165" s="15"/>
     </row>
@@ -12962,7 +12982,7 @@
       <c r="AA166" s="15"/>
       <c r="AB166" s="15"/>
       <c r="AC166" s="15"/>
-      <c r="AD166" s="92"/>
+      <c r="AD166" s="18"/>
       <c r="AE166" s="15"/>
       <c r="AF166" s="15"/>
     </row>
@@ -12993,7 +13013,7 @@
       <c r="AA167" s="15"/>
       <c r="AB167" s="15"/>
       <c r="AC167" s="15"/>
-      <c r="AD167" s="92"/>
+      <c r="AD167" s="18"/>
       <c r="AE167" s="15"/>
       <c r="AF167" s="15"/>
     </row>
@@ -13024,7 +13044,7 @@
       <c r="AA168" s="15"/>
       <c r="AB168" s="15"/>
       <c r="AC168" s="15"/>
-      <c r="AD168" s="92"/>
+      <c r="AD168" s="18"/>
       <c r="AE168" s="15"/>
       <c r="AF168" s="15"/>
     </row>
@@ -13055,7 +13075,7 @@
       <c r="AA169" s="15"/>
       <c r="AB169" s="15"/>
       <c r="AC169" s="15"/>
-      <c r="AD169" s="92"/>
+      <c r="AD169" s="18"/>
       <c r="AE169" s="15"/>
       <c r="AF169" s="15"/>
     </row>
@@ -13086,7 +13106,7 @@
       <c r="AA170" s="15"/>
       <c r="AB170" s="15"/>
       <c r="AC170" s="15"/>
-      <c r="AD170" s="92"/>
+      <c r="AD170" s="18"/>
       <c r="AE170" s="15"/>
       <c r="AF170" s="15"/>
     </row>
@@ -13117,7 +13137,7 @@
       <c r="AA171" s="15"/>
       <c r="AB171" s="15"/>
       <c r="AC171" s="15"/>
-      <c r="AD171" s="92"/>
+      <c r="AD171" s="18"/>
       <c r="AE171" s="15"/>
       <c r="AF171" s="15"/>
     </row>
@@ -13148,7 +13168,7 @@
       <c r="AA172" s="15"/>
       <c r="AB172" s="15"/>
       <c r="AC172" s="15"/>
-      <c r="AD172" s="92"/>
+      <c r="AD172" s="18"/>
       <c r="AE172" s="15"/>
       <c r="AF172" s="15"/>
     </row>
@@ -13179,7 +13199,7 @@
       <c r="AA173" s="15"/>
       <c r="AB173" s="15"/>
       <c r="AC173" s="15"/>
-      <c r="AD173" s="92"/>
+      <c r="AD173" s="18"/>
       <c r="AE173" s="15"/>
       <c r="AF173" s="15"/>
     </row>
@@ -13210,7 +13230,7 @@
       <c r="AA174" s="15"/>
       <c r="AB174" s="15"/>
       <c r="AC174" s="15"/>
-      <c r="AD174" s="92"/>
+      <c r="AD174" s="18"/>
       <c r="AE174" s="15"/>
       <c r="AF174" s="15"/>
     </row>
@@ -13241,7 +13261,7 @@
       <c r="AA175" s="15"/>
       <c r="AB175" s="15"/>
       <c r="AC175" s="15"/>
-      <c r="AD175" s="92"/>
+      <c r="AD175" s="18"/>
       <c r="AE175" s="15"/>
       <c r="AF175" s="15"/>
     </row>
@@ -13272,7 +13292,7 @@
       <c r="AA176" s="15"/>
       <c r="AB176" s="15"/>
       <c r="AC176" s="15"/>
-      <c r="AD176" s="92"/>
+      <c r="AD176" s="18"/>
       <c r="AE176" s="15"/>
       <c r="AF176" s="15"/>
     </row>
@@ -13303,7 +13323,7 @@
       <c r="AA177" s="15"/>
       <c r="AB177" s="15"/>
       <c r="AC177" s="15"/>
-      <c r="AD177" s="92"/>
+      <c r="AD177" s="18"/>
       <c r="AE177" s="15"/>
       <c r="AF177" s="15"/>
     </row>
@@ -13334,7 +13354,7 @@
       <c r="AA178" s="15"/>
       <c r="AB178" s="15"/>
       <c r="AC178" s="15"/>
-      <c r="AD178" s="92"/>
+      <c r="AD178" s="18"/>
       <c r="AE178" s="15"/>
       <c r="AF178" s="15"/>
     </row>
@@ -13365,7 +13385,7 @@
       <c r="AA179" s="15"/>
       <c r="AB179" s="15"/>
       <c r="AC179" s="15"/>
-      <c r="AD179" s="92"/>
+      <c r="AD179" s="18"/>
       <c r="AE179" s="15"/>
       <c r="AF179" s="15"/>
     </row>
@@ -13396,7 +13416,7 @@
       <c r="AA180" s="15"/>
       <c r="AB180" s="15"/>
       <c r="AC180" s="15"/>
-      <c r="AD180" s="92"/>
+      <c r="AD180" s="18"/>
       <c r="AE180" s="15"/>
       <c r="AF180" s="15"/>
     </row>
@@ -13427,7 +13447,7 @@
       <c r="AA181" s="15"/>
       <c r="AB181" s="15"/>
       <c r="AC181" s="15"/>
-      <c r="AD181" s="92"/>
+      <c r="AD181" s="18"/>
       <c r="AE181" s="15"/>
       <c r="AF181" s="15"/>
     </row>
@@ -13458,7 +13478,7 @@
       <c r="AA182" s="15"/>
       <c r="AB182" s="15"/>
       <c r="AC182" s="15"/>
-      <c r="AD182" s="92"/>
+      <c r="AD182" s="18"/>
       <c r="AE182" s="15"/>
       <c r="AF182" s="15"/>
     </row>
@@ -13489,7 +13509,7 @@
       <c r="AA183" s="15"/>
       <c r="AB183" s="15"/>
       <c r="AC183" s="15"/>
-      <c r="AD183" s="92"/>
+      <c r="AD183" s="18"/>
       <c r="AE183" s="15"/>
       <c r="AF183" s="15"/>
     </row>
@@ -13520,7 +13540,7 @@
       <c r="AA184" s="15"/>
       <c r="AB184" s="15"/>
       <c r="AC184" s="15"/>
-      <c r="AD184" s="92"/>
+      <c r="AD184" s="18"/>
       <c r="AE184" s="15"/>
       <c r="AF184" s="15"/>
     </row>
@@ -13551,7 +13571,7 @@
       <c r="AA185" s="15"/>
       <c r="AB185" s="15"/>
       <c r="AC185" s="15"/>
-      <c r="AD185" s="92"/>
+      <c r="AD185" s="18"/>
       <c r="AE185" s="15"/>
       <c r="AF185" s="15"/>
     </row>
@@ -13582,7 +13602,7 @@
       <c r="AA186" s="15"/>
       <c r="AB186" s="15"/>
       <c r="AC186" s="15"/>
-      <c r="AD186" s="92"/>
+      <c r="AD186" s="18"/>
       <c r="AE186" s="15"/>
       <c r="AF186" s="15"/>
     </row>
@@ -13613,7 +13633,7 @@
       <c r="AA187" s="15"/>
       <c r="AB187" s="15"/>
       <c r="AC187" s="15"/>
-      <c r="AD187" s="92"/>
+      <c r="AD187" s="18"/>
       <c r="AE187" s="15"/>
       <c r="AF187" s="15"/>
     </row>
@@ -13644,7 +13664,7 @@
       <c r="AA188" s="15"/>
       <c r="AB188" s="15"/>
       <c r="AC188" s="15"/>
-      <c r="AD188" s="92"/>
+      <c r="AD188" s="18"/>
       <c r="AE188" s="15"/>
       <c r="AF188" s="15"/>
     </row>
@@ -13675,7 +13695,7 @@
       <c r="AA189" s="15"/>
       <c r="AB189" s="15"/>
       <c r="AC189" s="15"/>
-      <c r="AD189" s="92"/>
+      <c r="AD189" s="18"/>
       <c r="AE189" s="15"/>
       <c r="AF189" s="15"/>
     </row>
@@ -13706,7 +13726,7 @@
       <c r="AA190" s="15"/>
       <c r="AB190" s="15"/>
       <c r="AC190" s="15"/>
-      <c r="AD190" s="92"/>
+      <c r="AD190" s="18"/>
       <c r="AE190" s="15"/>
       <c r="AF190" s="15"/>
     </row>
@@ -13737,7 +13757,7 @@
       <c r="AA191" s="15"/>
       <c r="AB191" s="15"/>
       <c r="AC191" s="15"/>
-      <c r="AD191" s="92"/>
+      <c r="AD191" s="18"/>
       <c r="AE191" s="15"/>
       <c r="AF191" s="15"/>
     </row>
@@ -13768,7 +13788,7 @@
       <c r="AA192" s="15"/>
       <c r="AB192" s="15"/>
       <c r="AC192" s="15"/>
-      <c r="AD192" s="92"/>
+      <c r="AD192" s="18"/>
       <c r="AE192" s="15"/>
       <c r="AF192" s="15"/>
     </row>
@@ -13799,7 +13819,7 @@
       <c r="AA193" s="15"/>
       <c r="AB193" s="15"/>
       <c r="AC193" s="15"/>
-      <c r="AD193" s="92"/>
+      <c r="AD193" s="18"/>
       <c r="AE193" s="15"/>
       <c r="AF193" s="15"/>
     </row>
@@ -13830,7 +13850,7 @@
       <c r="AA194" s="15"/>
       <c r="AB194" s="15"/>
       <c r="AC194" s="15"/>
-      <c r="AD194" s="92"/>
+      <c r="AD194" s="18"/>
       <c r="AE194" s="15"/>
       <c r="AF194" s="15"/>
     </row>
@@ -13861,7 +13881,7 @@
       <c r="AA195" s="15"/>
       <c r="AB195" s="15"/>
       <c r="AC195" s="15"/>
-      <c r="AD195" s="92"/>
+      <c r="AD195" s="18"/>
       <c r="AE195" s="15"/>
       <c r="AF195" s="15"/>
     </row>
@@ -13892,7 +13912,7 @@
       <c r="AA196" s="15"/>
       <c r="AB196" s="15"/>
       <c r="AC196" s="15"/>
-      <c r="AD196" s="92"/>
+      <c r="AD196" s="18"/>
       <c r="AE196" s="15"/>
       <c r="AF196" s="15"/>
     </row>
@@ -13923,7 +13943,7 @@
       <c r="AA197" s="15"/>
       <c r="AB197" s="15"/>
       <c r="AC197" s="15"/>
-      <c r="AD197" s="92"/>
+      <c r="AD197" s="18"/>
       <c r="AE197" s="15"/>
       <c r="AF197" s="15"/>
     </row>
@@ -13954,7 +13974,7 @@
       <c r="AA198" s="15"/>
       <c r="AB198" s="15"/>
       <c r="AC198" s="15"/>
-      <c r="AD198" s="92"/>
+      <c r="AD198" s="18"/>
       <c r="AE198" s="15"/>
       <c r="AF198" s="15"/>
     </row>
@@ -13985,7 +14005,7 @@
       <c r="AA199" s="15"/>
       <c r="AB199" s="15"/>
       <c r="AC199" s="15"/>
-      <c r="AD199" s="92"/>
+      <c r="AD199" s="18"/>
       <c r="AE199" s="15"/>
       <c r="AF199" s="15"/>
     </row>
@@ -14016,7 +14036,7 @@
       <c r="AA200" s="15"/>
       <c r="AB200" s="15"/>
       <c r="AC200" s="15"/>
-      <c r="AD200" s="92"/>
+      <c r="AD200" s="18"/>
       <c r="AE200" s="15"/>
       <c r="AF200" s="15"/>
     </row>
@@ -14047,7 +14067,7 @@
       <c r="AA201" s="15"/>
       <c r="AB201" s="15"/>
       <c r="AC201" s="15"/>
-      <c r="AD201" s="92"/>
+      <c r="AD201" s="18"/>
       <c r="AE201" s="15"/>
       <c r="AF201" s="15"/>
     </row>
@@ -14078,7 +14098,7 @@
       <c r="AA202" s="15"/>
       <c r="AB202" s="15"/>
       <c r="AC202" s="15"/>
-      <c r="AD202" s="92"/>
+      <c r="AD202" s="18"/>
       <c r="AE202" s="15"/>
       <c r="AF202" s="15"/>
     </row>
@@ -14109,7 +14129,7 @@
       <c r="AA203" s="15"/>
       <c r="AB203" s="15"/>
       <c r="AC203" s="15"/>
-      <c r="AD203" s="92"/>
+      <c r="AD203" s="18"/>
       <c r="AE203" s="15"/>
       <c r="AF203" s="15"/>
     </row>
@@ -14140,7 +14160,7 @@
       <c r="AA204" s="15"/>
       <c r="AB204" s="15"/>
       <c r="AC204" s="15"/>
-      <c r="AD204" s="92"/>
+      <c r="AD204" s="18"/>
       <c r="AE204" s="15"/>
       <c r="AF204" s="15"/>
     </row>
@@ -14171,7 +14191,7 @@
       <c r="AA205" s="15"/>
       <c r="AB205" s="15"/>
       <c r="AC205" s="15"/>
-      <c r="AD205" s="92"/>
+      <c r="AD205" s="18"/>
       <c r="AE205" s="15"/>
       <c r="AF205" s="15"/>
     </row>
@@ -14202,7 +14222,7 @@
       <c r="AA206" s="15"/>
       <c r="AB206" s="15"/>
       <c r="AC206" s="15"/>
-      <c r="AD206" s="92"/>
+      <c r="AD206" s="18"/>
       <c r="AE206" s="15"/>
       <c r="AF206" s="15"/>
     </row>
@@ -14233,7 +14253,7 @@
       <c r="AA207" s="15"/>
       <c r="AB207" s="15"/>
       <c r="AC207" s="15"/>
-      <c r="AD207" s="92"/>
+      <c r="AD207" s="18"/>
       <c r="AE207" s="15"/>
       <c r="AF207" s="15"/>
     </row>
@@ -14264,7 +14284,7 @@
       <c r="AA208" s="15"/>
       <c r="AB208" s="15"/>
       <c r="AC208" s="15"/>
-      <c r="AD208" s="92"/>
+      <c r="AD208" s="18"/>
       <c r="AE208" s="15"/>
       <c r="AF208" s="15"/>
     </row>
@@ -14295,7 +14315,7 @@
       <c r="AA209" s="15"/>
       <c r="AB209" s="15"/>
       <c r="AC209" s="15"/>
-      <c r="AD209" s="92"/>
+      <c r="AD209" s="18"/>
       <c r="AE209" s="15"/>
       <c r="AF209" s="15"/>
     </row>
@@ -14326,7 +14346,7 @@
       <c r="AA210" s="15"/>
       <c r="AB210" s="15"/>
       <c r="AC210" s="15"/>
-      <c r="AD210" s="92"/>
+      <c r="AD210" s="18"/>
       <c r="AE210" s="15"/>
       <c r="AF210" s="15"/>
     </row>
@@ -14357,7 +14377,7 @@
       <c r="AA211" s="15"/>
       <c r="AB211" s="15"/>
       <c r="AC211" s="15"/>
-      <c r="AD211" s="92"/>
+      <c r="AD211" s="18"/>
       <c r="AE211" s="15"/>
       <c r="AF211" s="15"/>
     </row>
@@ -14388,7 +14408,7 @@
       <c r="AA212" s="15"/>
       <c r="AB212" s="15"/>
       <c r="AC212" s="15"/>
-      <c r="AD212" s="92"/>
+      <c r="AD212" s="18"/>
       <c r="AE212" s="15"/>
       <c r="AF212" s="15"/>
     </row>
@@ -14419,7 +14439,7 @@
       <c r="AA213" s="15"/>
       <c r="AB213" s="15"/>
       <c r="AC213" s="15"/>
-      <c r="AD213" s="92"/>
+      <c r="AD213" s="18"/>
       <c r="AE213" s="15"/>
       <c r="AF213" s="15"/>
     </row>
@@ -14450,7 +14470,7 @@
       <c r="AA214" s="15"/>
       <c r="AB214" s="15"/>
       <c r="AC214" s="15"/>
-      <c r="AD214" s="92"/>
+      <c r="AD214" s="18"/>
       <c r="AE214" s="15"/>
       <c r="AF214" s="15"/>
     </row>
@@ -14481,7 +14501,7 @@
       <c r="AA215" s="15"/>
       <c r="AB215" s="15"/>
       <c r="AC215" s="15"/>
-      <c r="AD215" s="92"/>
+      <c r="AD215" s="18"/>
       <c r="AE215" s="15"/>
       <c r="AF215" s="15"/>
     </row>
@@ -14512,7 +14532,7 @@
       <c r="AA216" s="15"/>
       <c r="AB216" s="15"/>
       <c r="AC216" s="15"/>
-      <c r="AD216" s="92"/>
+      <c r="AD216" s="18"/>
       <c r="AE216" s="15"/>
       <c r="AF216" s="15"/>
     </row>
@@ -14543,7 +14563,7 @@
       <c r="AA217" s="15"/>
       <c r="AB217" s="15"/>
       <c r="AC217" s="15"/>
-      <c r="AD217" s="92"/>
+      <c r="AD217" s="18"/>
       <c r="AE217" s="15"/>
       <c r="AF217" s="15"/>
     </row>
@@ -14574,7 +14594,7 @@
       <c r="AA218" s="15"/>
       <c r="AB218" s="15"/>
       <c r="AC218" s="15"/>
-      <c r="AD218" s="92"/>
+      <c r="AD218" s="18"/>
       <c r="AE218" s="15"/>
       <c r="AF218" s="15"/>
     </row>
@@ -14605,7 +14625,7 @@
       <c r="AA219" s="15"/>
       <c r="AB219" s="15"/>
       <c r="AC219" s="15"/>
-      <c r="AD219" s="92"/>
+      <c r="AD219" s="18"/>
       <c r="AE219" s="15"/>
       <c r="AF219" s="15"/>
     </row>
@@ -14636,7 +14656,7 @@
       <c r="AA220" s="15"/>
       <c r="AB220" s="15"/>
       <c r="AC220" s="15"/>
-      <c r="AD220" s="92"/>
+      <c r="AD220" s="18"/>
       <c r="AE220" s="15"/>
       <c r="AF220" s="15"/>
     </row>
@@ -14667,7 +14687,7 @@
       <c r="AA221" s="15"/>
       <c r="AB221" s="15"/>
       <c r="AC221" s="15"/>
-      <c r="AD221" s="92"/>
+      <c r="AD221" s="18"/>
       <c r="AE221" s="15"/>
       <c r="AF221" s="15"/>
     </row>
@@ -14698,7 +14718,7 @@
       <c r="AA222" s="15"/>
       <c r="AB222" s="15"/>
       <c r="AC222" s="15"/>
-      <c r="AD222" s="92"/>
+      <c r="AD222" s="18"/>
       <c r="AE222" s="15"/>
       <c r="AF222" s="15"/>
     </row>
@@ -14729,7 +14749,7 @@
       <c r="AA223" s="15"/>
       <c r="AB223" s="15"/>
       <c r="AC223" s="15"/>
-      <c r="AD223" s="92"/>
+      <c r="AD223" s="18"/>
       <c r="AE223" s="15"/>
       <c r="AF223" s="15"/>
     </row>
@@ -14760,7 +14780,7 @@
       <c r="AA224" s="15"/>
       <c r="AB224" s="15"/>
       <c r="AC224" s="15"/>
-      <c r="AD224" s="92"/>
+      <c r="AD224" s="18"/>
       <c r="AE224" s="15"/>
       <c r="AF224" s="15"/>
     </row>
@@ -14791,7 +14811,7 @@
       <c r="AA225" s="15"/>
       <c r="AB225" s="15"/>
       <c r="AC225" s="15"/>
-      <c r="AD225" s="92"/>
+      <c r="AD225" s="18"/>
       <c r="AE225" s="15"/>
       <c r="AF225" s="15"/>
     </row>
@@ -14822,7 +14842,7 @@
       <c r="AA226" s="15"/>
       <c r="AB226" s="15"/>
       <c r="AC226" s="15"/>
-      <c r="AD226" s="92"/>
+      <c r="AD226" s="18"/>
       <c r="AE226" s="15"/>
       <c r="AF226" s="15"/>
     </row>
@@ -14853,7 +14873,7 @@
       <c r="AA227" s="15"/>
       <c r="AB227" s="15"/>
       <c r="AC227" s="15"/>
-      <c r="AD227" s="92"/>
+      <c r="AD227" s="18"/>
       <c r="AE227" s="15"/>
       <c r="AF227" s="15"/>
     </row>
@@ -14884,7 +14904,7 @@
       <c r="AA228" s="15"/>
       <c r="AB228" s="15"/>
       <c r="AC228" s="15"/>
-      <c r="AD228" s="92"/>
+      <c r="AD228" s="18"/>
       <c r="AE228" s="15"/>
       <c r="AF228" s="15"/>
     </row>
@@ -14915,7 +14935,7 @@
       <c r="AA229" s="15"/>
       <c r="AB229" s="15"/>
       <c r="AC229" s="15"/>
-      <c r="AD229" s="92"/>
+      <c r="AD229" s="18"/>
       <c r="AE229" s="15"/>
       <c r="AF229" s="15"/>
     </row>
@@ -14946,7 +14966,7 @@
       <c r="AA230" s="15"/>
       <c r="AB230" s="15"/>
       <c r="AC230" s="15"/>
-      <c r="AD230" s="92"/>
+      <c r="AD230" s="18"/>
       <c r="AE230" s="15"/>
       <c r="AF230" s="15"/>
     </row>
@@ -14977,7 +14997,7 @@
       <c r="AA231" s="15"/>
       <c r="AB231" s="15"/>
       <c r="AC231" s="15"/>
-      <c r="AD231" s="92"/>
+      <c r="AD231" s="18"/>
       <c r="AE231" s="15"/>
       <c r="AF231" s="15"/>
     </row>
@@ -15008,7 +15028,7 @@
       <c r="AA232" s="15"/>
       <c r="AB232" s="15"/>
       <c r="AC232" s="15"/>
-      <c r="AD232" s="92"/>
+      <c r="AD232" s="18"/>
       <c r="AE232" s="15"/>
       <c r="AF232" s="15"/>
     </row>
@@ -15039,7 +15059,7 @@
       <c r="AA233" s="15"/>
       <c r="AB233" s="15"/>
       <c r="AC233" s="15"/>
-      <c r="AD233" s="92"/>
+      <c r="AD233" s="18"/>
       <c r="AE233" s="15"/>
       <c r="AF233" s="15"/>
     </row>
@@ -15070,7 +15090,7 @@
       <c r="AA234" s="15"/>
       <c r="AB234" s="15"/>
       <c r="AC234" s="15"/>
-      <c r="AD234" s="92"/>
+      <c r="AD234" s="18"/>
       <c r="AE234" s="15"/>
       <c r="AF234" s="15"/>
     </row>
@@ -15101,7 +15121,7 @@
       <c r="AA235" s="15"/>
       <c r="AB235" s="15"/>
       <c r="AC235" s="15"/>
-      <c r="AD235" s="92"/>
+      <c r="AD235" s="18"/>
       <c r="AE235" s="15"/>
       <c r="AF235" s="15"/>
     </row>
@@ -15132,7 +15152,7 @@
       <c r="AA236" s="15"/>
       <c r="AB236" s="15"/>
       <c r="AC236" s="15"/>
-      <c r="AD236" s="92"/>
+      <c r="AD236" s="18"/>
       <c r="AE236" s="15"/>
       <c r="AF236" s="15"/>
     </row>
@@ -15163,7 +15183,7 @@
       <c r="AA237" s="15"/>
       <c r="AB237" s="15"/>
       <c r="AC237" s="15"/>
-      <c r="AD237" s="92"/>
+      <c r="AD237" s="18"/>
       <c r="AE237" s="15"/>
       <c r="AF237" s="15"/>
     </row>
@@ -15194,7 +15214,7 @@
       <c r="AA238" s="15"/>
       <c r="AB238" s="15"/>
       <c r="AC238" s="15"/>
-      <c r="AD238" s="92"/>
+      <c r="AD238" s="18"/>
       <c r="AE238" s="15"/>
       <c r="AF238" s="15"/>
     </row>
@@ -15225,7 +15245,7 @@
       <c r="AA239" s="15"/>
       <c r="AB239" s="15"/>
       <c r="AC239" s="15"/>
-      <c r="AD239" s="92"/>
+      <c r="AD239" s="18"/>
       <c r="AE239" s="15"/>
       <c r="AF239" s="15"/>
     </row>
@@ -15256,7 +15276,7 @@
       <c r="AA240" s="15"/>
       <c r="AB240" s="15"/>
       <c r="AC240" s="15"/>
-      <c r="AD240" s="92"/>
+      <c r="AD240" s="18"/>
       <c r="AE240" s="15"/>
       <c r="AF240" s="15"/>
     </row>
@@ -15287,7 +15307,7 @@
       <c r="AA241" s="15"/>
       <c r="AB241" s="15"/>
       <c r="AC241" s="15"/>
-      <c r="AD241" s="92"/>
+      <c r="AD241" s="18"/>
       <c r="AE241" s="15"/>
       <c r="AF241" s="15"/>
     </row>
@@ -15318,7 +15338,7 @@
       <c r="AA242" s="15"/>
       <c r="AB242" s="15"/>
       <c r="AC242" s="15"/>
-      <c r="AD242" s="92"/>
+      <c r="AD242" s="18"/>
       <c r="AE242" s="15"/>
       <c r="AF242" s="15"/>
     </row>
@@ -15349,7 +15369,7 @@
       <c r="AA243" s="15"/>
       <c r="AB243" s="15"/>
       <c r="AC243" s="15"/>
-      <c r="AD243" s="92"/>
+      <c r="AD243" s="18"/>
       <c r="AE243" s="15"/>
       <c r="AF243" s="15"/>
     </row>
@@ -15380,7 +15400,7 @@
       <c r="AA244" s="15"/>
       <c r="AB244" s="15"/>
       <c r="AC244" s="15"/>
-      <c r="AD244" s="92"/>
+      <c r="AD244" s="18"/>
       <c r="AE244" s="15"/>
       <c r="AF244" s="15"/>
     </row>
@@ -15411,7 +15431,7 @@
       <c r="AA245" s="15"/>
       <c r="AB245" s="15"/>
       <c r="AC245" s="15"/>
-      <c r="AD245" s="92"/>
+      <c r="AD245" s="18"/>
       <c r="AE245" s="15"/>
       <c r="AF245" s="15"/>
     </row>
@@ -15442,7 +15462,7 @@
       <c r="AA246" s="15"/>
       <c r="AB246" s="15"/>
       <c r="AC246" s="15"/>
-      <c r="AD246" s="92"/>
+      <c r="AD246" s="18"/>
       <c r="AE246" s="15"/>
       <c r="AF246" s="15"/>
     </row>
@@ -15473,7 +15493,7 @@
       <c r="AA247" s="15"/>
       <c r="AB247" s="15"/>
       <c r="AC247" s="15"/>
-      <c r="AD247" s="92"/>
+      <c r="AD247" s="18"/>
       <c r="AE247" s="15"/>
       <c r="AF247" s="15"/>
     </row>
@@ -15504,7 +15524,7 @@
       <c r="AA248" s="15"/>
       <c r="AB248" s="15"/>
       <c r="AC248" s="15"/>
-      <c r="AD248" s="92"/>
+      <c r="AD248" s="18"/>
       <c r="AE248" s="15"/>
       <c r="AF248" s="15"/>
     </row>
@@ -15535,7 +15555,7 @@
       <c r="AA249" s="15"/>
       <c r="AB249" s="15"/>
       <c r="AC249" s="15"/>
-      <c r="AD249" s="92"/>
+      <c r="AD249" s="18"/>
       <c r="AE249" s="15"/>
       <c r="AF249" s="15"/>
     </row>
@@ -15566,7 +15586,7 @@
       <c r="AA250" s="15"/>
       <c r="AB250" s="15"/>
       <c r="AC250" s="15"/>
-      <c r="AD250" s="92"/>
+      <c r="AD250" s="18"/>
       <c r="AE250" s="15"/>
       <c r="AF250" s="15"/>
     </row>
@@ -15597,7 +15617,7 @@
       <c r="AA251" s="15"/>
       <c r="AB251" s="15"/>
       <c r="AC251" s="15"/>
-      <c r="AD251" s="92"/>
+      <c r="AD251" s="18"/>
       <c r="AE251" s="15"/>
       <c r="AF251" s="15"/>
     </row>
@@ -15628,7 +15648,7 @@
       <c r="AA252" s="15"/>
       <c r="AB252" s="15"/>
       <c r="AC252" s="15"/>
-      <c r="AD252" s="92"/>
+      <c r="AD252" s="18"/>
       <c r="AE252" s="15"/>
       <c r="AF252" s="15"/>
     </row>
@@ -15659,7 +15679,7 @@
       <c r="AA253" s="15"/>
       <c r="AB253" s="15"/>
       <c r="AC253" s="15"/>
-      <c r="AD253" s="92"/>
+      <c r="AD253" s="18"/>
       <c r="AE253" s="15"/>
       <c r="AF253" s="15"/>
     </row>
@@ -15690,7 +15710,7 @@
       <c r="AA254" s="15"/>
       <c r="AB254" s="15"/>
       <c r="AC254" s="15"/>
-      <c r="AD254" s="92"/>
+      <c r="AD254" s="18"/>
       <c r="AE254" s="15"/>
       <c r="AF254" s="15"/>
     </row>
@@ -15721,7 +15741,7 @@
       <c r="AA255" s="15"/>
       <c r="AB255" s="15"/>
       <c r="AC255" s="15"/>
-      <c r="AD255" s="92"/>
+      <c r="AD255" s="18"/>
       <c r="AE255" s="15"/>
       <c r="AF255" s="15"/>
     </row>
@@ -15752,7 +15772,7 @@
       <c r="AA256" s="15"/>
       <c r="AB256" s="15"/>
       <c r="AC256" s="15"/>
-      <c r="AD256" s="92"/>
+      <c r="AD256" s="18"/>
       <c r="AE256" s="15"/>
       <c r="AF256" s="15"/>
     </row>
@@ -15783,7 +15803,7 @@
       <c r="AA257" s="15"/>
       <c r="AB257" s="15"/>
       <c r="AC257" s="15"/>
-      <c r="AD257" s="92"/>
+      <c r="AD257" s="18"/>
       <c r="AE257" s="15"/>
       <c r="AF257" s="15"/>
     </row>
@@ -15814,7 +15834,7 @@
       <c r="AA258" s="15"/>
       <c r="AB258" s="15"/>
       <c r="AC258" s="15"/>
-      <c r="AD258" s="92"/>
+      <c r="AD258" s="18"/>
       <c r="AE258" s="15"/>
       <c r="AF258" s="15"/>
     </row>
@@ -15845,7 +15865,7 @@
       <c r="AA259" s="15"/>
       <c r="AB259" s="15"/>
       <c r="AC259" s="15"/>
-      <c r="AD259" s="92"/>
+      <c r="AD259" s="18"/>
       <c r="AE259" s="15"/>
       <c r="AF259" s="15"/>
     </row>
@@ -15876,7 +15896,7 @@
       <c r="AA260" s="15"/>
       <c r="AB260" s="15"/>
       <c r="AC260" s="15"/>
-      <c r="AD260" s="92"/>
+      <c r="AD260" s="18"/>
       <c r="AE260" s="15"/>
       <c r="AF260" s="15"/>
     </row>
@@ -15907,7 +15927,7 @@
       <c r="AA261" s="15"/>
       <c r="AB261" s="15"/>
       <c r="AC261" s="15"/>
-      <c r="AD261" s="92"/>
+      <c r="AD261" s="18"/>
       <c r="AE261" s="15"/>
       <c r="AF261" s="15"/>
     </row>
@@ -15938,7 +15958,7 @@
       <c r="AA262" s="15"/>
       <c r="AB262" s="15"/>
       <c r="AC262" s="15"/>
-      <c r="AD262" s="92"/>
+      <c r="AD262" s="18"/>
       <c r="AE262" s="15"/>
       <c r="AF262" s="15"/>
     </row>
@@ -15969,7 +15989,7 @@
       <c r="AA263" s="15"/>
       <c r="AB263" s="15"/>
       <c r="AC263" s="15"/>
-      <c r="AD263" s="92"/>
+      <c r="AD263" s="18"/>
       <c r="AE263" s="15"/>
       <c r="AF263" s="15"/>
     </row>
@@ -16000,7 +16020,7 @@
       <c r="AA264" s="15"/>
       <c r="AB264" s="15"/>
       <c r="AC264" s="15"/>
-      <c r="AD264" s="92"/>
+      <c r="AD264" s="18"/>
       <c r="AE264" s="15"/>
       <c r="AF264" s="15"/>
     </row>
@@ -16031,7 +16051,7 @@
       <c r="AA265" s="15"/>
       <c r="AB265" s="15"/>
       <c r="AC265" s="15"/>
-      <c r="AD265" s="92"/>
+      <c r="AD265" s="18"/>
       <c r="AE265" s="15"/>
       <c r="AF265" s="15"/>
     </row>
@@ -16062,7 +16082,7 @@
       <c r="AA266" s="15"/>
       <c r="AB266" s="15"/>
       <c r="AC266" s="15"/>
-      <c r="AD266" s="92"/>
+      <c r="AD266" s="18"/>
       <c r="AE266" s="15"/>
       <c r="AF266" s="15"/>
     </row>
@@ -16093,7 +16113,7 @@
       <c r="AA267" s="15"/>
       <c r="AB267" s="15"/>
       <c r="AC267" s="15"/>
-      <c r="AD267" s="92"/>
+      <c r="AD267" s="18"/>
       <c r="AE267" s="15"/>
       <c r="AF267" s="15"/>
     </row>
@@ -16124,7 +16144,7 @@
       <c r="AA268" s="15"/>
       <c r="AB268" s="15"/>
       <c r="AC268" s="15"/>
-      <c r="AD268" s="92"/>
+      <c r="AD268" s="18"/>
       <c r="AE268" s="15"/>
       <c r="AF268" s="15"/>
     </row>
@@ -16155,7 +16175,7 @@
       <c r="AA269" s="15"/>
       <c r="AB269" s="15"/>
       <c r="AC269" s="15"/>
-      <c r="AD269" s="92"/>
+      <c r="AD269" s="18"/>
       <c r="AE269" s="15"/>
       <c r="AF269" s="15"/>
     </row>
@@ -16186,7 +16206,7 @@
       <c r="AA270" s="15"/>
       <c r="AB270" s="15"/>
       <c r="AC270" s="15"/>
-      <c r="AD270" s="92"/>
+      <c r="AD270" s="18"/>
       <c r="AE270" s="15"/>
       <c r="AF270" s="15"/>
     </row>
@@ -16217,7 +16237,7 @@
       <c r="AA271" s="15"/>
       <c r="AB271" s="15"/>
       <c r="AC271" s="15"/>
-      <c r="AD271" s="92"/>
+      <c r="AD271" s="18"/>
       <c r="AE271" s="15"/>
       <c r="AF271" s="15"/>
     </row>
@@ -16248,7 +16268,7 @@
       <c r="AA272" s="15"/>
       <c r="AB272" s="15"/>
       <c r="AC272" s="15"/>
-      <c r="AD272" s="92"/>
+      <c r="AD272" s="18"/>
       <c r="AE272" s="15"/>
       <c r="AF272" s="15"/>
     </row>
@@ -16279,7 +16299,7 @@
       <c r="AA273" s="15"/>
       <c r="AB273" s="15"/>
       <c r="AC273" s="15"/>
-      <c r="AD273" s="92"/>
+      <c r="AD273" s="18"/>
       <c r="AE273" s="15"/>
       <c r="AF273" s="15"/>
     </row>
@@ -16310,7 +16330,7 @@
       <c r="AA274" s="15"/>
       <c r="AB274" s="15"/>
       <c r="AC274" s="15"/>
-      <c r="AD274" s="92"/>
+      <c r="AD274" s="18"/>
       <c r="AE274" s="15"/>
       <c r="AF274" s="15"/>
     </row>
@@ -16341,7 +16361,7 @@
       <c r="AA275" s="15"/>
       <c r="AB275" s="15"/>
       <c r="AC275" s="15"/>
-      <c r="AD275" s="92"/>
+      <c r="AD275" s="18"/>
       <c r="AE275" s="15"/>
       <c r="AF275" s="15"/>
     </row>
@@ -16372,7 +16392,7 @@
       <c r="AA276" s="15"/>
       <c r="AB276" s="15"/>
       <c r="AC276" s="15"/>
-      <c r="AD276" s="92"/>
+      <c r="AD276" s="18"/>
       <c r="AE276" s="15"/>
       <c r="AF276" s="15"/>
     </row>
@@ -16403,7 +16423,7 @@
       <c r="AA277" s="15"/>
       <c r="AB277" s="15"/>
       <c r="AC277" s="15"/>
-      <c r="AD277" s="92"/>
+      <c r="AD277" s="18"/>
       <c r="AE277" s="15"/>
       <c r="AF277" s="15"/>
     </row>
@@ -16434,7 +16454,7 @@
       <c r="AA278" s="15"/>
       <c r="AB278" s="15"/>
       <c r="AC278" s="15"/>
-      <c r="AD278" s="92"/>
+      <c r="AD278" s="18"/>
       <c r="AE278" s="15"/>
       <c r="AF278" s="15"/>
     </row>
@@ -16465,7 +16485,7 @@
       <c r="AA279" s="15"/>
       <c r="AB279" s="15"/>
       <c r="AC279" s="15"/>
-      <c r="AD279" s="92"/>
+      <c r="AD279" s="18"/>
       <c r="AE279" s="15"/>
       <c r="AF279" s="15"/>
     </row>
@@ -16496,7 +16516,7 @@
       <c r="AA280" s="15"/>
       <c r="AB280" s="15"/>
       <c r="AC280" s="15"/>
-      <c r="AD280" s="92"/>
+      <c r="AD280" s="18"/>
       <c r="AE280" s="15"/>
       <c r="AF280" s="15"/>
     </row>
@@ -16527,7 +16547,7 @@
       <c r="AA281" s="15"/>
       <c r="AB281" s="15"/>
       <c r="AC281" s="15"/>
-      <c r="AD281" s="92"/>
+      <c r="AD281" s="18"/>
       <c r="AE281" s="15"/>
       <c r="AF281" s="15"/>
     </row>
@@ -16558,7 +16578,7 @@
       <c r="AA282" s="15"/>
       <c r="AB282" s="15"/>
       <c r="AC282" s="15"/>
-      <c r="AD282" s="92"/>
+      <c r="AD282" s="18"/>
       <c r="AE282" s="15"/>
       <c r="AF282" s="15"/>
     </row>
@@ -16589,7 +16609,7 @@
       <c r="AA283" s="15"/>
       <c r="AB283" s="15"/>
       <c r="AC283" s="15"/>
-      <c r="AD283" s="92"/>
+      <c r="AD283" s="18"/>
       <c r="AE283" s="15"/>
       <c r="AF283" s="15"/>
     </row>
@@ -16620,7 +16640,7 @@
       <c r="AA284" s="15"/>
       <c r="AB284" s="15"/>
       <c r="AC284" s="15"/>
-      <c r="AD284" s="92"/>
+      <c r="AD284" s="18"/>
       <c r="AE284" s="15"/>
       <c r="AF284" s="15"/>
     </row>
@@ -16651,7 +16671,7 @@
       <c r="AA285" s="15"/>
       <c r="AB285" s="15"/>
       <c r="AC285" s="15"/>
-      <c r="AD285" s="92"/>
+      <c r="AD285" s="18"/>
       <c r="AE285" s="15"/>
       <c r="AF285" s="15"/>
     </row>
@@ -16682,7 +16702,7 @@
       <c r="AA286" s="15"/>
       <c r="AB286" s="15"/>
       <c r="AC286" s="15"/>
-      <c r="AD286" s="92"/>
+      <c r="AD286" s="18"/>
       <c r="AE286" s="15"/>
       <c r="AF286" s="15"/>
     </row>
@@ -16713,7 +16733,7 @@
       <c r="AA287" s="15"/>
       <c r="AB287" s="15"/>
       <c r="AC287" s="15"/>
-      <c r="AD287" s="92"/>
+      <c r="AD287" s="18"/>
       <c r="AE287" s="15"/>
       <c r="AF287" s="15"/>
     </row>
@@ -16744,7 +16764,7 @@
       <c r="AA288" s="15"/>
       <c r="AB288" s="15"/>
       <c r="AC288" s="15"/>
-      <c r="AD288" s="92"/>
+      <c r="AD288" s="18"/>
       <c r="AE288" s="15"/>
       <c r="AF288" s="15"/>
     </row>
@@ -16775,7 +16795,7 @@
       <c r="AA289" s="15"/>
       <c r="AB289" s="15"/>
       <c r="AC289" s="15"/>
-      <c r="AD289" s="92"/>
+      <c r="AD289" s="18"/>
       <c r="AE289" s="15"/>
       <c r="AF289" s="15"/>
     </row>
@@ -16806,7 +16826,7 @@
       <c r="AA290" s="15"/>
       <c r="AB290" s="15"/>
       <c r="AC290" s="15"/>
-      <c r="AD290" s="92"/>
+      <c r="AD290" s="18"/>
       <c r="AE290" s="15"/>
       <c r="AF290" s="15"/>
     </row>
@@ -16837,7 +16857,7 @@
       <c r="AA291" s="15"/>
       <c r="AB291" s="15"/>
       <c r="AC291" s="15"/>
-      <c r="AD291" s="92"/>
+      <c r="AD291" s="18"/>
       <c r="AE291" s="15"/>
       <c r="AF291" s="15"/>
     </row>
@@ -16868,7 +16888,7 @@
       <c r="AA292" s="15"/>
       <c r="AB292" s="15"/>
       <c r="AC292" s="15"/>
-      <c r="AD292" s="92"/>
+      <c r="AD292" s="18"/>
       <c r="AE292" s="15"/>
       <c r="AF292" s="15"/>
     </row>
@@ -16899,7 +16919,7 @@
       <c r="AA293" s="15"/>
       <c r="AB293" s="15"/>
       <c r="AC293" s="15"/>
-      <c r="AD293" s="92"/>
+      <c r="AD293" s="18"/>
       <c r="AE293" s="15"/>
       <c r="AF293" s="15"/>
     </row>
@@ -16930,7 +16950,7 @@
       <c r="AA294" s="15"/>
       <c r="AB294" s="15"/>
       <c r="AC294" s="15"/>
-      <c r="AD294" s="92"/>
+      <c r="AD294" s="18"/>
       <c r="AE294" s="15"/>
       <c r="AF294" s="15"/>
     </row>
@@ -16961,7 +16981,7 @@
       <c r="AA295" s="15"/>
       <c r="AB295" s="15"/>
       <c r="AC295" s="15"/>
-      <c r="AD295" s="92"/>
+      <c r="AD295" s="18"/>
       <c r="AE295" s="15"/>
       <c r="AF295" s="15"/>
     </row>
@@ -16992,7 +17012,7 @@
       <c r="AA296" s="15"/>
       <c r="AB296" s="15"/>
       <c r="AC296" s="15"/>
-      <c r="AD296" s="92"/>
+      <c r="AD296" s="18"/>
       <c r="AE296" s="15"/>
       <c r="AF296" s="15"/>
     </row>
@@ -17023,7 +17043,7 @@
       <c r="AA297" s="15"/>
       <c r="AB297" s="15"/>
       <c r="AC297" s="15"/>
-      <c r="AD297" s="92"/>
+      <c r="AD297" s="18"/>
       <c r="AE297" s="15"/>
       <c r="AF297" s="15"/>
     </row>
@@ -17054,7 +17074,7 @@
       <c r="AA298" s="15"/>
       <c r="AB298" s="15"/>
       <c r="AC298" s="15"/>
-      <c r="AD298" s="92"/>
+      <c r="AD298" s="18"/>
       <c r="AE298" s="15"/>
       <c r="AF298" s="15"/>
     </row>
@@ -17085,7 +17105,7 @@
       <c r="AA299" s="15"/>
       <c r="AB299" s="15"/>
       <c r="AC299" s="15"/>
-      <c r="AD299" s="92"/>
+      <c r="AD299" s="18"/>
       <c r="AE299" s="15"/>
       <c r="AF299" s="15"/>
     </row>
@@ -17116,7 +17136,7 @@
       <c r="AA300" s="15"/>
       <c r="AB300" s="15"/>
       <c r="AC300" s="15"/>
-      <c r="AD300" s="92"/>
+      <c r="AD300" s="18"/>
       <c r="AE300" s="15"/>
       <c r="AF300" s="15"/>
     </row>
@@ -17147,7 +17167,7 @@
       <c r="AA301" s="15"/>
       <c r="AB301" s="15"/>
       <c r="AC301" s="15"/>
-      <c r="AD301" s="92"/>
+      <c r="AD301" s="18"/>
       <c r="AE301" s="15"/>
       <c r="AF301" s="15"/>
     </row>
@@ -17178,7 +17198,7 @@
       <c r="AA302" s="15"/>
       <c r="AB302" s="15"/>
       <c r="AC302" s="15"/>
-      <c r="AD302" s="92"/>
+      <c r="AD302" s="18"/>
       <c r="AE302" s="15"/>
       <c r="AF302" s="15"/>
     </row>
@@ -17209,7 +17229,7 @@
       <c r="AA303" s="15"/>
       <c r="AB303" s="15"/>
       <c r="AC303" s="15"/>
-      <c r="AD303" s="92"/>
+      <c r="AD303" s="18"/>
       <c r="AE303" s="15"/>
       <c r="AF303" s="15"/>
     </row>
@@ -17240,7 +17260,7 @@
       <c r="AA304" s="15"/>
       <c r="AB304" s="15"/>
       <c r="AC304" s="15"/>
-      <c r="AD304" s="92"/>
+      <c r="AD304" s="18"/>
       <c r="AE304" s="15"/>
       <c r="AF304" s="15"/>
     </row>
@@ -17271,7 +17291,7 @@
       <c r="AA305" s="15"/>
       <c r="AB305" s="15"/>
       <c r="AC305" s="15"/>
-      <c r="AD305" s="92"/>
+      <c r="AD305" s="18"/>
       <c r="AE305" s="15"/>
       <c r="AF305" s="15"/>
     </row>
@@ -17302,7 +17322,7 @@
       <c r="AA306" s="15"/>
       <c r="AB306" s="15"/>
       <c r="AC306" s="15"/>
-      <c r="AD306" s="92"/>
+      <c r="AD306" s="18"/>
       <c r="AE306" s="15"/>
       <c r="AF306" s="15"/>
     </row>
@@ -17333,7 +17353,7 @@
       <c r="AA307" s="15"/>
       <c r="AB307" s="15"/>
       <c r="AC307" s="15"/>
-      <c r="AD307" s="92"/>
+      <c r="AD307" s="18"/>
       <c r="AE307" s="15"/>
       <c r="AF307" s="15"/>
     </row>
@@ -17364,7 +17384,7 @@
       <c r="AA308" s="15"/>
       <c r="AB308" s="15"/>
       <c r="AC308" s="15"/>
-      <c r="AD308" s="92"/>
+      <c r="AD308" s="18"/>
       <c r="AE308" s="15"/>
       <c r="AF308" s="15"/>
     </row>
@@ -17395,7 +17415,7 @@
       <c r="AA309" s="15"/>
       <c r="AB309" s="15"/>
       <c r="AC309" s="15"/>
-      <c r="AD309" s="92"/>
+      <c r="AD309" s="18"/>
       <c r="AE309" s="15"/>
       <c r="AF309" s="15"/>
     </row>
@@ -17426,7 +17446,7 @@
       <c r="AA310" s="15"/>
       <c r="AB310" s="15"/>
       <c r="AC310" s="15"/>
-      <c r="AD310" s="92"/>
+      <c r="AD310" s="18"/>
       <c r="AE310" s="15"/>
       <c r="AF310" s="15"/>
     </row>
@@ -17457,7 +17477,7 @@
       <c r="AA311" s="15"/>
       <c r="AB311" s="15"/>
       <c r="AC311" s="15"/>
-      <c r="AD311" s="92"/>
+      <c r="AD311" s="18"/>
       <c r="AE311" s="15"/>
       <c r="AF311" s="15"/>
     </row>
@@ -17488,7 +17508,7 @@
       <c r="AA312" s="15"/>
       <c r="AB312" s="15"/>
       <c r="AC312" s="15"/>
-      <c r="AD312" s="92"/>
+      <c r="AD312" s="18"/>
       <c r="AE312" s="15"/>
       <c r="AF312" s="15"/>
     </row>
@@ -17519,7 +17539,7 @@
       <c r="AA313" s="15"/>
       <c r="AB313" s="15"/>
       <c r="AC313" s="15"/>
-      <c r="AD313" s="92"/>
+      <c r="AD313" s="18"/>
       <c r="AE313" s="15"/>
       <c r="AF313" s="15"/>
     </row>
@@ -17550,7 +17570,7 @@
       <c r="AA314" s="15"/>
       <c r="AB314" s="15"/>
       <c r="AC314" s="15"/>
-      <c r="AD314" s="92"/>
+      <c r="AD314" s="18"/>
       <c r="AE314" s="15"/>
       <c r="AF314" s="15"/>
     </row>
@@ -17581,7 +17601,7 @@
       <c r="AA315" s="15"/>
       <c r="AB315" s="15"/>
       <c r="AC315" s="15"/>
-      <c r="AD315" s="92"/>
+      <c r="AD315" s="18"/>
       <c r="AE315" s="15"/>
       <c r="AF315" s="15"/>
     </row>
@@ -17612,7 +17632,7 @@
       <c r="AA316" s="15"/>
       <c r="AB316" s="15"/>
       <c r="AC316" s="15"/>
-      <c r="AD316" s="92"/>
+      <c r="AD316" s="18"/>
       <c r="AE316" s="15"/>
       <c r="AF316" s="15"/>
     </row>
@@ -17643,7 +17663,7 @@
       <c r="AA317" s="15"/>
       <c r="AB317" s="15"/>
       <c r="AC317" s="15"/>
-      <c r="AD317" s="92"/>
+      <c r="AD317" s="18"/>
       <c r="AE317" s="15"/>
       <c r="AF317" s="15"/>
     </row>
@@ -17674,7 +17694,7 @@
       <c r="AA318" s="15"/>
       <c r="AB318" s="15"/>
       <c r="AC318" s="15"/>
-      <c r="AD318" s="92"/>
+      <c r="AD318" s="18"/>
       <c r="AE318" s="15"/>
       <c r="AF318" s="15"/>
     </row>
@@ -17705,7 +17725,7 @@
       <c r="AA319" s="15"/>
       <c r="AB319" s="15"/>
       <c r="AC319" s="15"/>
-      <c r="AD319" s="92"/>
+      <c r="AD319" s="18"/>
       <c r="AE319" s="15"/>
       <c r="AF319" s="15"/>
     </row>
@@ -17736,7 +17756,7 @@
       <c r="AA320" s="15"/>
       <c r="AB320" s="15"/>
       <c r="AC320" s="15"/>
-      <c r="AD320" s="92"/>
+      <c r="AD320" s="18"/>
       <c r="AE320" s="15"/>
       <c r="AF320" s="15"/>
     </row>
@@ -17767,7 +17787,7 @@
       <c r="AA321" s="15"/>
       <c r="AB321" s="15"/>
       <c r="AC321" s="15"/>
-      <c r="AD321" s="92"/>
+      <c r="AD321" s="18"/>
       <c r="AE321" s="15"/>
       <c r="AF321" s="15"/>
     </row>
@@ -17798,7 +17818,7 @@
       <c r="AA322" s="15"/>
       <c r="AB322" s="15"/>
       <c r="AC322" s="15"/>
-      <c r="AD322" s="92"/>
+      <c r="AD322" s="18"/>
       <c r="AE322" s="15"/>
       <c r="AF322" s="15"/>
     </row>
@@ -17829,7 +17849,7 @@
       <c r="AA323" s="15"/>
       <c r="AB323" s="15"/>
       <c r="AC323" s="15"/>
-      <c r="AD323" s="92"/>
+      <c r="AD323" s="18"/>
       <c r="AE323" s="15"/>
       <c r="AF323" s="15"/>
     </row>
@@ -17860,7 +17880,7 @@
       <c r="AA324" s="15"/>
       <c r="AB324" s="15"/>
       <c r="AC324" s="15"/>
-      <c r="AD324" s="92"/>
+      <c r="AD324" s="18"/>
       <c r="AE324" s="15"/>
       <c r="AF324" s="15"/>
     </row>
@@ -17891,7 +17911,7 @@
       <c r="AA325" s="15"/>
       <c r="AB325" s="15"/>
       <c r="AC325" s="15"/>
-      <c r="AD325" s="92"/>
+      <c r="AD325" s="18"/>
       <c r="AE325" s="15"/>
       <c r="AF325" s="15"/>
     </row>
@@ -17922,7 +17942,7 @@
       <c r="AA326" s="15"/>
       <c r="AB326" s="15"/>
       <c r="AC326" s="15"/>
-      <c r="AD326" s="92"/>
+      <c r="AD326" s="18"/>
       <c r="AE326" s="15"/>
       <c r="AF326" s="15"/>
     </row>
@@ -17953,7 +17973,7 @@
       <c r="AA327" s="15"/>
       <c r="AB327" s="15"/>
       <c r="AC327" s="15"/>
-      <c r="AD327" s="92"/>
+      <c r="AD327" s="18"/>
       <c r="AE327" s="15"/>
       <c r="AF327" s="15"/>
     </row>
@@ -17984,7 +18004,7 @@
       <c r="AA328" s="15"/>
       <c r="AB328" s="15"/>
       <c r="AC328" s="15"/>
-      <c r="AD328" s="92"/>
+      <c r="AD328" s="18"/>
       <c r="AE328" s="15"/>
       <c r="AF328" s="15"/>
     </row>
@@ -18015,7 +18035,7 @@
       <c r="AA329" s="15"/>
       <c r="AB329" s="15"/>
       <c r="AC329" s="15"/>
-      <c r="AD329" s="92"/>
+      <c r="AD329" s="18"/>
       <c r="AE329" s="15"/>
       <c r="AF329" s="15"/>
     </row>
@@ -18046,7 +18066,7 @@
       <c r="AA330" s="15"/>
       <c r="AB330" s="15"/>
       <c r="AC330" s="15"/>
-      <c r="AD330" s="92"/>
+      <c r="AD330" s="18"/>
       <c r="AE330" s="15"/>
       <c r="AF330" s="15"/>
     </row>
@@ -18077,7 +18097,7 @@
       <c r="AA331" s="15"/>
       <c r="AB331" s="15"/>
       <c r="AC331" s="15"/>
-      <c r="AD331" s="92"/>
+      <c r="AD331" s="18"/>
       <c r="AE331" s="15"/>
       <c r="AF331" s="15"/>
     </row>
@@ -18108,7 +18128,7 @@
       <c r="AA332" s="15"/>
       <c r="AB332" s="15"/>
       <c r="AC332" s="15"/>
-      <c r="AD332" s="92"/>
+      <c r="AD332" s="18"/>
       <c r="AE332" s="15"/>
       <c r="AF332" s="15"/>
     </row>
@@ -18139,7 +18159,7 @@
       <c r="AA333" s="15"/>
       <c r="AB333" s="15"/>
       <c r="AC333" s="15"/>
-      <c r="AD333" s="92"/>
+      <c r="AD333" s="18"/>
       <c r="AE333" s="15"/>
       <c r="AF333" s="15"/>
     </row>
@@ -18170,7 +18190,7 @@
       <c r="AA334" s="15"/>
       <c r="AB334" s="15"/>
       <c r="AC334" s="15"/>
-      <c r="AD334" s="92"/>
+      <c r="AD334" s="18"/>
       <c r="AE334" s="15"/>
       <c r="AF334" s="15"/>
     </row>
@@ -18201,7 +18221,7 @@
       <c r="AA335" s="15"/>
       <c r="AB335" s="15"/>
       <c r="AC335" s="15"/>
-      <c r="AD335" s="92"/>
+      <c r="AD335" s="18"/>
       <c r="AE335" s="15"/>
       <c r="AF335" s="15"/>
     </row>
@@ -18232,7 +18252,7 @@
       <c r="AA336" s="15"/>
       <c r="AB336" s="15"/>
       <c r="AC336" s="15"/>
-      <c r="AD336" s="92"/>
+      <c r="AD336" s="18"/>
       <c r="AE336" s="15"/>
       <c r="AF336" s="15"/>
     </row>
@@ -18263,7 +18283,7 @@
       <c r="AA337" s="15"/>
       <c r="AB337" s="15"/>
       <c r="AC337" s="15"/>
-      <c r="AD337" s="92"/>
+      <c r="AD337" s="18"/>
       <c r="AE337" s="15"/>
       <c r="AF337" s="15"/>
     </row>
@@ -18294,7 +18314,7 @@
       <c r="AA338" s="15"/>
       <c r="AB338" s="15"/>
       <c r="AC338" s="15"/>
-      <c r="AD338" s="92"/>
+      <c r="AD338" s="18"/>
       <c r="AE338" s="15"/>
       <c r="AF338" s="15"/>
     </row>
@@ -18325,7 +18345,7 @@
       <c r="AA339" s="15"/>
       <c r="AB339" s="15"/>
       <c r="AC339" s="15"/>
-      <c r="AD339" s="92"/>
+      <c r="AD339" s="18"/>
       <c r="AE339" s="15"/>
       <c r="AF339" s="15"/>
     </row>
@@ -18356,7 +18376,7 @@
       <c r="AA340" s="15"/>
       <c r="AB340" s="15"/>
       <c r="AC340" s="15"/>
-      <c r="AD340" s="92"/>
+      <c r="AD340" s="18"/>
       <c r="AE340" s="15"/>
       <c r="AF340" s="15"/>
     </row>
@@ -18387,7 +18407,7 @@
       <c r="AA341" s="15"/>
       <c r="AB341" s="15"/>
       <c r="AC341" s="15"/>
-      <c r="AD341" s="92"/>
+      <c r="AD341" s="18"/>
       <c r="AE341" s="15"/>
       <c r="AF341" s="15"/>
     </row>
@@ -18418,7 +18438,7 @@
       <c r="AA342" s="15"/>
       <c r="AB342" s="15"/>
       <c r="AC342" s="15"/>
-      <c r="AD342" s="92"/>
+      <c r="AD342" s="18"/>
       <c r="AE342" s="15"/>
       <c r="AF342" s="15"/>
     </row>
@@ -18449,7 +18469,7 @@
       <c r="AA343" s="15"/>
       <c r="AB343" s="15"/>
       <c r="AC343" s="15"/>
-      <c r="AD343" s="92"/>
+      <c r="AD343" s="18"/>
       <c r="AE343" s="15"/>
       <c r="AF343" s="15"/>
     </row>
@@ -18480,7 +18500,7 @@
       <c r="AA344" s="15"/>
       <c r="AB344" s="15"/>
       <c r="AC344" s="15"/>
-      <c r="AD344" s="92"/>
+      <c r="AD344" s="18"/>
       <c r="AE344" s="15"/>
       <c r="AF344" s="15"/>
     </row>
@@ -18511,7 +18531,7 @@
       <c r="AA345" s="15"/>
       <c r="AB345" s="15"/>
       <c r="AC345" s="15"/>
-      <c r="AD345" s="92"/>
+      <c r="AD345" s="18"/>
       <c r="AE345" s="15"/>
       <c r="AF345" s="15"/>
     </row>
@@ -18542,7 +18562,7 @@
       <c r="AA346" s="15"/>
       <c r="AB346" s="15"/>
       <c r="AC346" s="15"/>
-      <c r="AD346" s="92"/>
+      <c r="AD346" s="18"/>
       <c r="AE346" s="15"/>
       <c r="AF346" s="15"/>
     </row>
@@ -18573,7 +18593,7 @@
       <c r="AA347" s="15"/>
       <c r="AB347" s="15"/>
       <c r="AC347" s="15"/>
-      <c r="AD347" s="92"/>
+      <c r="AD347" s="18"/>
       <c r="AE347" s="15"/>
       <c r="AF347" s="15"/>
     </row>
@@ -18604,7 +18624,7 @@
       <c r="AA348" s="15"/>
       <c r="AB348" s="15"/>
       <c r="AC348" s="15"/>
-      <c r="AD348" s="92"/>
+      <c r="AD348" s="18"/>
       <c r="AE348" s="15"/>
       <c r="AF348" s="15"/>
     </row>
@@ -18635,7 +18655,7 @@
       <c r="AA349" s="15"/>
       <c r="AB349" s="15"/>
       <c r="AC349" s="15"/>
-      <c r="AD349" s="92"/>
+      <c r="AD349" s="18"/>
       <c r="AE349" s="15"/>
       <c r="AF349" s="15"/>
     </row>
@@ -18666,7 +18686,7 @@
       <c r="AA350" s="15"/>
       <c r="AB350" s="15"/>
       <c r="AC350" s="15"/>
-      <c r="AD350" s="92"/>
+      <c r="AD350" s="18"/>
       <c r="AE350" s="15"/>
       <c r="AF350" s="15"/>
     </row>
@@ -18697,7 +18717,7 @@
       <c r="AA351" s="15"/>
       <c r="AB351" s="15"/>
       <c r="AC351" s="15"/>
-      <c r="AD351" s="92"/>
+      <c r="AD351" s="18"/>
       <c r="AE351" s="15"/>
       <c r="AF351" s="15"/>
     </row>
@@ -18728,7 +18748,7 @@
       <c r="AA352" s="15"/>
       <c r="AB352" s="15"/>
       <c r="AC352" s="15"/>
-      <c r="AD352" s="92"/>
+      <c r="AD352" s="18"/>
       <c r="AE352" s="15"/>
       <c r="AF352" s="15"/>
     </row>
@@ -18759,7 +18779,7 @@
       <c r="AA353" s="15"/>
       <c r="AB353" s="15"/>
       <c r="AC353" s="15"/>
-      <c r="AD353" s="92"/>
+      <c r="AD353" s="18"/>
       <c r="AE353" s="15"/>
       <c r="AF353" s="15"/>
     </row>
@@ -18790,7 +18810,7 @@
       <c r="AA354" s="15"/>
       <c r="AB354" s="15"/>
       <c r="AC354" s="15"/>
-      <c r="AD354" s="92"/>
+      <c r="AD354" s="18"/>
       <c r="AE354" s="15"/>
       <c r="AF354" s="15"/>
     </row>
@@ -18821,7 +18841,7 @@
       <c r="AA355" s="15"/>
       <c r="AB355" s="15"/>
       <c r="AC355" s="15"/>
-      <c r="AD355" s="92"/>
+      <c r="AD355" s="18"/>
       <c r="AE355" s="15"/>
       <c r="AF355" s="15"/>
     </row>
@@ -18852,7 +18872,7 @@
       <c r="AA356" s="15"/>
       <c r="AB356" s="15"/>
       <c r="AC356" s="15"/>
-      <c r="AD356" s="92"/>
+      <c r="AD356" s="18"/>
       <c r="AE356" s="15"/>
       <c r="AF356" s="15"/>
     </row>
@@ -18883,7 +18903,7 @@
       <c r="AA357" s="15"/>
       <c r="AB357" s="15"/>
       <c r="AC357" s="15"/>
-      <c r="AD357" s="92"/>
+      <c r="AD357" s="18"/>
       <c r="AE357" s="15"/>
       <c r="AF357" s="15"/>
     </row>
@@ -18914,7 +18934,7 @@
       <c r="AA358" s="15"/>
       <c r="AB358" s="15"/>
       <c r="AC358" s="15"/>
-      <c r="AD358" s="92"/>
+      <c r="AD358" s="18"/>
       <c r="AE358" s="15"/>
       <c r="AF358" s="15"/>
     </row>
@@ -18945,7 +18965,7 @@
       <c r="AA359" s="15"/>
       <c r="AB359" s="15"/>
       <c r="AC359" s="15"/>
-      <c r="AD359" s="92"/>
+      <c r="AD359" s="18"/>
       <c r="AE359" s="15"/>
       <c r="AF359" s="15"/>
     </row>
@@ -18976,7 +18996,7 @@
       <c r="AA360" s="15"/>
       <c r="AB360" s="15"/>
       <c r="AC360" s="15"/>
-      <c r="AD360" s="92"/>
+      <c r="AD360" s="18"/>
       <c r="AE360" s="15"/>
       <c r="AF360" s="15"/>
     </row>
@@ -19007,7 +19027,7 @@
       <c r="AA361" s="15"/>
       <c r="AB361" s="15"/>
       <c r="AC361" s="15"/>
-      <c r="AD361" s="92"/>
+      <c r="AD361" s="18"/>
       <c r="AE361" s="15"/>
       <c r="AF361" s="15"/>
     </row>
@@ -19038,7 +19058,7 @@
       <c r="AA362" s="15"/>
       <c r="AB362" s="15"/>
       <c r="AC362" s="15"/>
-      <c r="AD362" s="92"/>
+      <c r="AD362" s="18"/>
       <c r="AE362" s="15"/>
       <c r="AF362" s="15"/>
     </row>
@@ -19069,7 +19089,7 @@
       <c r="AA363" s="15"/>
       <c r="AB363" s="15"/>
       <c r="AC363" s="15"/>
-      <c r="AD363" s="92"/>
+      <c r="AD363" s="18"/>
       <c r="AE363" s="15"/>
       <c r="AF363" s="15"/>
     </row>
@@ -19100,7 +19120,7 @@
       <c r="AA364" s="15"/>
       <c r="AB364" s="15"/>
       <c r="AC364" s="15"/>
-      <c r="AD364" s="92"/>
+      <c r="AD364" s="18"/>
       <c r="AE364" s="15"/>
       <c r="AF364" s="15"/>
     </row>
@@ -19131,7 +19151,7 @@
       <c r="AA365" s="15"/>
       <c r="AB365" s="15"/>
       <c r="AC365" s="15"/>
-      <c r="AD365" s="92"/>
+      <c r="AD365" s="18"/>
       <c r="AE365" s="15"/>
       <c r="AF365" s="15"/>
     </row>
@@ -19162,7 +19182,7 @@
       <c r="AA366" s="15"/>
       <c r="AB366" s="15"/>
       <c r="AC366" s="15"/>
-      <c r="AD366" s="92"/>
+      <c r="AD366" s="18"/>
       <c r="AE366" s="15"/>
       <c r="AF366" s="15"/>
     </row>
@@ -19193,7 +19213,7 @@
       <c r="AA367" s="15"/>
       <c r="AB367" s="15"/>
       <c r="AC367" s="15"/>
-      <c r="AD367" s="92"/>
+      <c r="AD367" s="18"/>
       <c r="AE367" s="15"/>
       <c r="AF367" s="15"/>
     </row>
@@ -19224,7 +19244,7 @@
       <c r="AA368" s="15"/>
       <c r="AB368" s="15"/>
       <c r="AC368" s="15"/>
-      <c r="AD368" s="92"/>
+      <c r="AD368" s="18"/>
       <c r="AE368" s="15"/>
       <c r="AF368" s="15"/>
     </row>
@@ -19255,7 +19275,7 @@
       <c r="AA369" s="15"/>
       <c r="AB369" s="15"/>
       <c r="AC369" s="15"/>
-      <c r="AD369" s="92"/>
+      <c r="AD369" s="18"/>
       <c r="AE369" s="15"/>
       <c r="AF369" s="15"/>
     </row>
@@ -19286,7 +19306,7 @@
       <c r="AA370" s="15"/>
       <c r="AB370" s="15"/>
       <c r="AC370" s="15"/>
-      <c r="AD370" s="92"/>
+      <c r="AD370" s="18"/>
       <c r="AE370" s="15"/>
       <c r="AF370" s="15"/>
     </row>
@@ -19317,7 +19337,7 @@
       <c r="AA371" s="15"/>
       <c r="AB371" s="15"/>
       <c r="AC371" s="15"/>
-      <c r="AD371" s="92"/>
+      <c r="AD371" s="18"/>
       <c r="AE371" s="15"/>
       <c r="AF371" s="15"/>
     </row>
@@ -19348,7 +19368,7 @@
       <c r="AA372" s="15"/>
       <c r="AB372" s="15"/>
       <c r="AC372" s="15"/>
-      <c r="AD372" s="92"/>
+      <c r="AD372" s="18"/>
       <c r="AE372" s="15"/>
       <c r="AF372" s="15"/>
     </row>
@@ -19379,7 +19399,7 @@
       <c r="AA373" s="15"/>
       <c r="AB373" s="15"/>
       <c r="AC373" s="15"/>
-      <c r="AD373" s="92"/>
+      <c r="AD373" s="18"/>
       <c r="AE373" s="15"/>
       <c r="AF373" s="15"/>
     </row>
@@ -19410,7 +19430,7 @@
       <c r="AA374" s="15"/>
       <c r="AB374" s="15"/>
       <c r="AC374" s="15"/>
-      <c r="AD374" s="92"/>
+      <c r="AD374" s="18"/>
       <c r="AE374" s="15"/>
       <c r="AF374" s="15"/>
     </row>
@@ -19441,7 +19461,7 @@
       <c r="AA375" s="15"/>
       <c r="AB375" s="15"/>
       <c r="AC375" s="15"/>
-      <c r="AD375" s="92"/>
+      <c r="AD375" s="18"/>
       <c r="AE375" s="15"/>
       <c r="AF375" s="15"/>
     </row>
@@ -19472,7 +19492,7 @@
       <c r="AA376" s="15"/>
       <c r="AB376" s="15"/>
       <c r="AC376" s="15"/>
-      <c r="AD376" s="92"/>
+      <c r="AD376" s="18"/>
       <c r="AE376" s="15"/>
       <c r="AF376" s="15"/>
     </row>
@@ -19503,7 +19523,7 @@
       <c r="AA377" s="15"/>
       <c r="AB377" s="15"/>
       <c r="AC377" s="15"/>
-      <c r="AD377" s="92"/>
+      <c r="AD377" s="18"/>
       <c r="AE377" s="15"/>
       <c r="AF377" s="15"/>
     </row>
@@ -19534,7 +19554,7 @@
       <c r="AA378" s="15"/>
       <c r="AB378" s="15"/>
       <c r="AC378" s="15"/>
-      <c r="AD378" s="92"/>
+      <c r="AD378" s="18"/>
       <c r="AE378" s="15"/>
       <c r="AF378" s="15"/>
     </row>
@@ -19565,7 +19585,7 @@
       <c r="AA379" s="15"/>
       <c r="AB379" s="15"/>
       <c r="AC379" s="15"/>
-      <c r="AD379" s="92"/>
+      <c r="AD379" s="18"/>
       <c r="AE379" s="15"/>
       <c r="AF379" s="15"/>
     </row>
@@ -19596,7 +19616,7 @@
       <c r="AA380" s="15"/>
       <c r="AB380" s="15"/>
       <c r="AC380" s="15"/>
-      <c r="AD380" s="92"/>
+      <c r="AD380" s="18"/>
       <c r="AE380" s="15"/>
       <c r="AF380" s="15"/>
     </row>
@@ -19627,7 +19647,7 @@
       <c r="AA381" s="15"/>
       <c r="AB381" s="15"/>
       <c r="AC381" s="15"/>
-      <c r="AD381" s="92"/>
+      <c r="AD381" s="18"/>
       <c r="AE381" s="15"/>
       <c r="AF381" s="15"/>
     </row>
@@ -19658,7 +19678,7 @@
       <c r="AA382" s="15"/>
       <c r="AB382" s="15"/>
       <c r="AC382" s="15"/>
-      <c r="AD382" s="92"/>
+      <c r="AD382" s="18"/>
       <c r="AE382" s="15"/>
       <c r="AF382" s="15"/>
     </row>
@@ -19689,7 +19709,7 @@
       <c r="AA383" s="15"/>
       <c r="AB383" s="15"/>
       <c r="AC383" s="15"/>
-      <c r="AD383" s="92"/>
+      <c r="AD383" s="18"/>
       <c r="AE383" s="15"/>
       <c r="AF383" s="15"/>
     </row>
@@ -19720,7 +19740,7 @@
       <c r="AA384" s="15"/>
       <c r="AB384" s="15"/>
       <c r="AC384" s="15"/>
-      <c r="AD384" s="92"/>
+      <c r="AD384" s="18"/>
       <c r="AE384" s="15"/>
       <c r="AF384" s="15"/>
     </row>
@@ -19751,7 +19771,7 @@
       <c r="AA385" s="15"/>
       <c r="AB385" s="15"/>
       <c r="AC385" s="15"/>
-      <c r="AD385" s="92"/>
+      <c r="AD385" s="18"/>
       <c r="AE385" s="15"/>
       <c r="AF385" s="15"/>
     </row>
@@ -19782,7 +19802,7 @@
       <c r="AA386" s="15"/>
       <c r="AB386" s="15"/>
       <c r="AC386" s="15"/>
-      <c r="AD386" s="92"/>
+      <c r="AD386" s="18"/>
       <c r="AE386" s="15"/>
       <c r="AF386" s="15"/>
     </row>
@@ -19813,7 +19833,7 @@
       <c r="AA387" s="15"/>
       <c r="AB387" s="15"/>
       <c r="AC387" s="15"/>
-      <c r="AD387" s="92"/>
+      <c r="AD387" s="18"/>
       <c r="AE387" s="15"/>
       <c r="AF387" s="15"/>
     </row>
@@ -19844,7 +19864,7 @@
       <c r="AA388" s="15"/>
       <c r="AB388" s="15"/>
       <c r="AC388" s="15"/>
-      <c r="AD388" s="92"/>
+      <c r="AD388" s="18"/>
       <c r="AE388" s="15"/>
       <c r="AF388" s="15"/>
     </row>
@@ -19875,7 +19895,7 @@
       <c r="AA389" s="15"/>
       <c r="AB389" s="15"/>
       <c r="AC389" s="15"/>
-      <c r="AD389" s="92"/>
+      <c r="AD389" s="18"/>
       <c r="AE389" s="15"/>
       <c r="AF389" s="15"/>
     </row>
@@ -19906,7 +19926,7 @@
       <c r="AA390" s="15"/>
       <c r="AB390" s="15"/>
       <c r="AC390" s="15"/>
-      <c r="AD390" s="92"/>
+      <c r="AD390" s="18"/>
       <c r="AE390" s="15"/>
       <c r="AF390" s="15"/>
     </row>
@@ -19937,7 +19957,7 @@
       <c r="AA391" s="15"/>
       <c r="AB391" s="15"/>
       <c r="AC391" s="15"/>
-      <c r="AD391" s="92"/>
+      <c r="AD391" s="18"/>
       <c r="AE391" s="15"/>
       <c r="AF391" s="15"/>
     </row>
@@ -19968,7 +19988,7 @@
       <c r="AA392" s="15"/>
       <c r="AB392" s="15"/>
       <c r="AC392" s="15"/>
-      <c r="AD392" s="92"/>
+      <c r="AD392" s="18"/>
       <c r="AE392" s="15"/>
       <c r="AF392" s="15"/>
     </row>
@@ -19999,7 +20019,7 @@
       <c r="AA393" s="15"/>
       <c r="AB393" s="15"/>
       <c r="AC393" s="15"/>
-      <c r="AD393" s="92"/>
+      <c r="AD393" s="18"/>
       <c r="AE393" s="15"/>
       <c r="AF393" s="15"/>
     </row>
@@ -20030,7 +20050,7 @@
       <c r="AA394" s="15"/>
       <c r="AB394" s="15"/>
       <c r="AC394" s="15"/>
-      <c r="AD394" s="92"/>
+      <c r="AD394" s="18"/>
       <c r="AE394" s="15"/>
       <c r="AF394" s="15"/>
     </row>
@@ -20061,7 +20081,7 @@
       <c r="AA395" s="15"/>
       <c r="AB395" s="15"/>
       <c r="AC395" s="15"/>
-      <c r="AD395" s="92"/>
+      <c r="AD395" s="18"/>
       <c r="AE395" s="15"/>
       <c r="AF395" s="15"/>
     </row>
@@ -20092,7 +20112,7 @@
       <c r="AA396" s="15"/>
       <c r="AB396" s="15"/>
       <c r="AC396" s="15"/>
-      <c r="AD396" s="92"/>
+      <c r="AD396" s="18"/>
       <c r="AE396" s="15"/>
       <c r="AF396" s="15"/>
     </row>
@@ -20123,7 +20143,7 @@
       <c r="AA397" s="15"/>
       <c r="AB397" s="15"/>
       <c r="AC397" s="15"/>
-      <c r="AD397" s="92"/>
+      <c r="AD397" s="18"/>
       <c r="AE397" s="15"/>
       <c r="AF397" s="15"/>
     </row>
@@ -20154,7 +20174,7 @@
       <c r="AA398" s="15"/>
       <c r="AB398" s="15"/>
       <c r="AC398" s="15"/>
-      <c r="AD398" s="92"/>
+      <c r="AD398" s="18"/>
       <c r="AE398" s="15"/>
       <c r="AF398" s="15"/>
     </row>
@@ -20185,7 +20205,7 @@
       <c r="AA399" s="15"/>
       <c r="AB399" s="15"/>
       <c r="AC399" s="15"/>
-      <c r="AD399" s="92"/>
+      <c r="AD399" s="18"/>
       <c r="AE399" s="15"/>
       <c r="AF399" s="15"/>
     </row>
@@ -20216,7 +20236,7 @@
       <c r="AA400" s="15"/>
       <c r="AB400" s="15"/>
       <c r="AC400" s="15"/>
-      <c r="AD400" s="92"/>
+      <c r="AD400" s="18"/>
       <c r="AE400" s="15"/>
       <c r="AF400" s="15"/>
     </row>
@@ -20247,7 +20267,7 @@
       <c r="AA401" s="15"/>
       <c r="AB401" s="15"/>
       <c r="AC401" s="15"/>
-      <c r="AD401" s="92"/>
+      <c r="AD401" s="18"/>
       <c r="AE401" s="15"/>
       <c r="AF401" s="15"/>
     </row>
@@ -20278,7 +20298,7 @@
       <c r="AA402" s="15"/>
       <c r="AB402" s="15"/>
       <c r="AC402" s="15"/>
-      <c r="AD402" s="92"/>
+      <c r="AD402" s="18"/>
       <c r="AE402" s="15"/>
       <c r="AF402" s="15"/>
     </row>
@@ -20309,7 +20329,7 @@
       <c r="AA403" s="15"/>
       <c r="AB403" s="15"/>
       <c r="AC403" s="15"/>
-      <c r="AD403" s="92"/>
+      <c r="AD403" s="18"/>
       <c r="AE403" s="15"/>
       <c r="AF403" s="15"/>
     </row>
@@ -20340,7 +20360,7 @@
       <c r="AA404" s="15"/>
       <c r="AB404" s="15"/>
       <c r="AC404" s="15"/>
-      <c r="AD404" s="92"/>
+      <c r="AD404" s="18"/>
       <c r="AE404" s="15"/>
       <c r="AF404" s="15"/>
     </row>
@@ -20371,7 +20391,7 @@
       <c r="AA405" s="15"/>
       <c r="AB405" s="15"/>
       <c r="AC405" s="15"/>
-      <c r="AD405" s="92"/>
+      <c r="AD405" s="18"/>
       <c r="AE405" s="15"/>
       <c r="AF405" s="15"/>
     </row>
@@ -20402,7 +20422,7 @@
       <c r="AA406" s="15"/>
       <c r="AB406" s="15"/>
       <c r="AC406" s="15"/>
-      <c r="AD406" s="92"/>
+      <c r="AD406" s="18"/>
       <c r="AE406" s="15"/>
       <c r="AF406" s="15"/>
     </row>
@@ -20433,7 +20453,7 @@
       <c r="AA407" s="15"/>
       <c r="AB407" s="15"/>
       <c r="AC407" s="15"/>
-      <c r="AD407" s="92"/>
+      <c r="AD407" s="18"/>
       <c r="AE407" s="15"/>
       <c r="AF407" s="15"/>
     </row>
@@ -20464,7 +20484,7 @@
       <c r="AA408" s="15"/>
       <c r="AB408" s="15"/>
       <c r="AC408" s="15"/>
-      <c r="AD408" s="92"/>
+      <c r="AD408" s="18"/>
       <c r="AE408" s="15"/>
       <c r="AF408" s="15"/>
     </row>
@@ -20495,7 +20515,7 @@
       <c r="AA409" s="15"/>
       <c r="AB409" s="15"/>
       <c r="AC409" s="15"/>
-      <c r="AD409" s="92"/>
+      <c r="AD409" s="18"/>
       <c r="AE409" s="15"/>
       <c r="AF409" s="15"/>
     </row>
@@ -20526,7 +20546,7 @@
       <c r="AA410" s="15"/>
       <c r="AB410" s="15"/>
       <c r="AC410" s="15"/>
-      <c r="AD410" s="92"/>
+      <c r="AD410" s="18"/>
       <c r="AE410" s="15"/>
       <c r="AF410" s="15"/>
     </row>
@@ -20557,7 +20577,7 @@
       <c r="AA411" s="15"/>
       <c r="AB411" s="15"/>
       <c r="AC411" s="15"/>
-      <c r="AD411" s="92"/>
+      <c r="AD411" s="18"/>
       <c r="AE411" s="15"/>
       <c r="AF411" s="15"/>
     </row>
@@ -20588,7 +20608,7 @@
       <c r="AA412" s="15"/>
       <c r="AB412" s="15"/>
       <c r="AC412" s="15"/>
-      <c r="AD412" s="92"/>
+      <c r="AD412" s="18"/>
       <c r="AE412" s="15"/>
       <c r="AF412" s="15"/>
     </row>
@@ -20619,7 +20639,7 @@
       <c r="AA413" s="15"/>
       <c r="AB413" s="15"/>
       <c r="AC413" s="15"/>
-      <c r="AD413" s="92"/>
+      <c r="AD413" s="18"/>
       <c r="AE413" s="15"/>
       <c r="AF413" s="15"/>
     </row>
@@ -20650,7 +20670,7 @@
       <c r="AA414" s="15"/>
       <c r="AB414" s="15"/>
       <c r="AC414" s="15"/>
-      <c r="AD414" s="92"/>
+      <c r="AD414" s="18"/>
       <c r="AE414" s="15"/>
       <c r="AF414" s="15"/>
     </row>
@@ -20681,7 +20701,7 @@
       <c r="AA415" s="15"/>
       <c r="AB415" s="15"/>
       <c r="AC415" s="15"/>
-      <c r="AD415" s="92"/>
+      <c r="AD415" s="18"/>
       <c r="AE415" s="15"/>
       <c r="AF415" s="15"/>
     </row>
@@ -20712,7 +20732,7 @@
       <c r="AA416" s="15"/>
       <c r="AB416" s="15"/>
       <c r="AC416" s="15"/>
-      <c r="AD416" s="92"/>
+      <c r="AD416" s="18"/>
       <c r="AE416" s="15"/>
       <c r="AF416" s="15"/>
     </row>
@@ -20743,7 +20763,7 @@
       <c r="AA417" s="15"/>
       <c r="AB417" s="15"/>
       <c r="AC417" s="15"/>
-      <c r="AD417" s="92"/>
+      <c r="AD417" s="18"/>
       <c r="AE417" s="15"/>
       <c r="AF417" s="15"/>
     </row>
@@ -20774,7 +20794,7 @@
       <c r="AA418" s="15"/>
       <c r="AB418" s="15"/>
       <c r="AC418" s="15"/>
-      <c r="AD418" s="92"/>
+      <c r="AD418" s="18"/>
       <c r="AE418" s="15"/>
       <c r="AF418" s="15"/>
     </row>
@@ -20805,7 +20825,7 @@
       <c r="AA419" s="15"/>
       <c r="AB419" s="15"/>
       <c r="AC419" s="15"/>
-      <c r="AD419" s="92"/>
+      <c r="AD419" s="18"/>
       <c r="AE419" s="15"/>
       <c r="AF419" s="15"/>
     </row>
@@ -20836,7 +20856,7 @@
       <c r="AA420" s="15"/>
       <c r="AB420" s="15"/>
       <c r="AC420" s="15"/>
-      <c r="AD420" s="92"/>
+      <c r="AD420" s="18"/>
       <c r="AE420" s="15"/>
       <c r="AF420" s="15"/>
     </row>
@@ -20867,7 +20887,7 @@
       <c r="AA421" s="15"/>
       <c r="AB421" s="15"/>
       <c r="AC421" s="15"/>
-      <c r="AD421" s="92"/>
+      <c r="AD421" s="18"/>
       <c r="AE421" s="15"/>
       <c r="AF421" s="15"/>
     </row>
@@ -20898,7 +20918,7 @@
       <c r="AA422" s="15"/>
       <c r="AB422" s="15"/>
       <c r="AC422" s="15"/>
-      <c r="AD422" s="92"/>
+      <c r="AD422" s="18"/>
       <c r="AE422" s="15"/>
       <c r="AF422" s="15"/>
     </row>
@@ -20929,7 +20949,7 @@
       <c r="AA423" s="15"/>
       <c r="AB423" s="15"/>
       <c r="AC423" s="15"/>
-      <c r="AD423" s="92"/>
+      <c r="AD423" s="18"/>
       <c r="AE423" s="15"/>
       <c r="AF423" s="15"/>
     </row>
@@ -20960,7 +20980,7 @@
       <c r="AA424" s="15"/>
       <c r="AB424" s="15"/>
       <c r="AC424" s="15"/>
-      <c r="AD424" s="92"/>
+      <c r="AD424" s="18"/>
       <c r="AE424" s="15"/>
       <c r="AF424" s="15"/>
     </row>
@@ -20991,7 +21011,7 @@
       <c r="AA425" s="15"/>
       <c r="AB425" s="15"/>
       <c r="AC425" s="15"/>
-      <c r="AD425" s="92"/>
+      <c r="AD425" s="18"/>
       <c r="AE425" s="15"/>
       <c r="AF425" s="15"/>
     </row>
@@ -21022,7 +21042,7 @@
       <c r="AA426" s="15"/>
       <c r="AB426" s="15"/>
       <c r="AC426" s="15"/>
-      <c r="AD426" s="92"/>
+      <c r="AD426" s="18"/>
       <c r="AE426" s="15"/>
       <c r="AF426" s="15"/>
     </row>
@@ -21053,7 +21073,7 @@
       <c r="AA427" s="15"/>
       <c r="AB427" s="15"/>
       <c r="AC427" s="15"/>
-      <c r="AD427" s="92"/>
+      <c r="AD427" s="18"/>
       <c r="AE427" s="15"/>
       <c r="AF427" s="15"/>
     </row>
@@ -21084,7 +21104,7 @@
       <c r="AA428" s="15"/>
       <c r="AB428" s="15"/>
       <c r="AC428" s="15"/>
-      <c r="AD428" s="92"/>
+      <c r="AD428" s="18"/>
       <c r="AE428" s="15"/>
       <c r="AF428" s="15"/>
     </row>
@@ -21115,7 +21135,7 @@
       <c r="AA429" s="15"/>
       <c r="AB429" s="15"/>
       <c r="AC429" s="15"/>
-      <c r="AD429" s="92"/>
+      <c r="AD429" s="18"/>
       <c r="AE429" s="15"/>
       <c r="AF429" s="15"/>
     </row>
@@ -21146,7 +21166,7 @@
       <c r="AA430" s="15"/>
       <c r="AB430" s="15"/>
       <c r="AC430" s="15"/>
-      <c r="AD430" s="92"/>
+      <c r="AD430" s="18"/>
       <c r="AE430" s="15"/>
       <c r="AF430" s="15"/>
     </row>
@@ -21177,7 +21197,7 @@
       <c r="AA431" s="15"/>
       <c r="AB431" s="15"/>
       <c r="AC431" s="15"/>
-      <c r="AD431" s="92"/>
+      <c r="AD431" s="18"/>
       <c r="AE431" s="15"/>
       <c r="AF431" s="15"/>
     </row>
@@ -21208,7 +21228,7 @@
       <c r="AA432" s="15"/>
       <c r="AB432" s="15"/>
       <c r="AC432" s="15"/>
-      <c r="AD432" s="92"/>
+      <c r="AD432" s="18"/>
       <c r="AE432" s="15"/>
       <c r="AF432" s="15"/>
     </row>
@@ -21239,7 +21259,7 @@
       <c r="AA433" s="15"/>
       <c r="AB433" s="15"/>
       <c r="AC433" s="15"/>
-      <c r="AD433" s="92"/>
+      <c r="AD433" s="18"/>
       <c r="AE433" s="15"/>
       <c r="AF433" s="15"/>
     </row>
@@ -21270,7 +21290,7 @@
       <c r="AA434" s="15"/>
       <c r="AB434" s="15"/>
       <c r="AC434" s="15"/>
-      <c r="AD434" s="92"/>
+      <c r="AD434" s="18"/>
       <c r="AE434" s="15"/>
       <c r="AF434" s="15"/>
     </row>
@@ -21301,7 +21321,7 @@
       <c r="AA435" s="15"/>
       <c r="AB435" s="15"/>
       <c r="AC435" s="15"/>
-      <c r="AD435" s="92"/>
+      <c r="AD435" s="18"/>
       <c r="AE435" s="15"/>
       <c r="AF435" s="15"/>
     </row>
@@ -21332,7 +21352,7 @@
       <c r="AA436" s="15"/>
       <c r="AB436" s="15"/>
       <c r="AC436" s="15"/>
-      <c r="AD436" s="92"/>
+      <c r="AD436" s="18"/>
       <c r="AE436" s="15"/>
       <c r="AF436" s="15"/>
     </row>
@@ -21363,7 +21383,7 @@
       <c r="AA437" s="15"/>
       <c r="AB437" s="15"/>
       <c r="AC437" s="15"/>
-      <c r="AD437" s="92"/>
+      <c r="AD437" s="18"/>
       <c r="AE437" s="15"/>
       <c r="AF437" s="15"/>
     </row>
@@ -21394,7 +21414,7 @@
       <c r="AA438" s="15"/>
       <c r="AB438" s="15"/>
       <c r="AC438" s="15"/>
-      <c r="AD438" s="92"/>
+      <c r="AD438" s="18"/>
       <c r="AE438" s="15"/>
       <c r="AF438" s="15"/>
     </row>
@@ -21425,7 +21445,7 @@
       <c r="AA439" s="15"/>
       <c r="AB439" s="15"/>
       <c r="AC439" s="15"/>
-      <c r="AD439" s="92"/>
+      <c r="AD439" s="18"/>
       <c r="AE439" s="15"/>
       <c r="AF439" s="15"/>
     </row>
@@ -21456,7 +21476,7 @@
       <c r="AA440" s="15"/>
       <c r="AB440" s="15"/>
       <c r="AC440" s="15"/>
-      <c r="AD440" s="92"/>
+      <c r="AD440" s="18"/>
       <c r="AE440" s="15"/>
       <c r="AF440" s="15"/>
     </row>
@@ -21487,7 +21507,7 @@
       <c r="AA441" s="15"/>
       <c r="AB441" s="15"/>
       <c r="AC441" s="15"/>
-      <c r="AD441" s="92"/>
+      <c r="AD441" s="18"/>
       <c r="AE441" s="15"/>
       <c r="AF441" s="15"/>
     </row>
@@ -21518,7 +21538,7 @@
       <c r="AA442" s="15"/>
       <c r="AB442" s="15"/>
       <c r="AC442" s="15"/>
-      <c r="AD442" s="92"/>
+      <c r="AD442" s="18"/>
       <c r="AE442" s="15"/>
       <c r="AF442" s="15"/>
     </row>
@@ -21549,7 +21569,7 @@
       <c r="AA443" s="15"/>
       <c r="AB443" s="15"/>
       <c r="AC443" s="15"/>
-      <c r="AD443" s="92"/>
+      <c r="AD443" s="18"/>
       <c r="AE443" s="15"/>
       <c r="AF443" s="15"/>
     </row>
@@ -21580,7 +21600,7 @@
       <c r="AA444" s="15"/>
       <c r="AB444" s="15"/>
       <c r="AC444" s="15"/>
-      <c r="AD444" s="92"/>
+      <c r="AD444" s="18"/>
       <c r="AE444" s="15"/>
       <c r="AF444" s="15"/>
     </row>
@@ -21611,7 +21631,7 @@
       <c r="AA445" s="15"/>
       <c r="AB445" s="15"/>
       <c r="AC445" s="15"/>
-      <c r="AD445" s="92"/>
+      <c r="AD445" s="18"/>
       <c r="AE445" s="15"/>
       <c r="AF445" s="15"/>
     </row>
@@ -21642,7 +21662,7 @@
       <c r="AA446" s="15"/>
       <c r="AB446" s="15"/>
       <c r="AC446" s="15"/>
-      <c r="AD446" s="92"/>
+      <c r="AD446" s="18"/>
       <c r="AE446" s="15"/>
       <c r="AF446" s="15"/>
     </row>
@@ -21673,7 +21693,7 @@
       <c r="AA447" s="15"/>
       <c r="AB447" s="15"/>
       <c r="AC447" s="15"/>
-      <c r="AD447" s="92"/>
+      <c r="AD447" s="18"/>
       <c r="AE447" s="15"/>
       <c r="AF447" s="15"/>
     </row>
@@ -21704,7 +21724,7 @@
       <c r="AA448" s="15"/>
       <c r="AB448" s="15"/>
       <c r="AC448" s="15"/>
-      <c r="AD448" s="92"/>
+      <c r="AD448" s="18"/>
       <c r="AE448" s="15"/>
       <c r="AF448" s="15"/>
     </row>
@@ -21735,7 +21755,7 @@
       <c r="AA449" s="15"/>
       <c r="AB449" s="15"/>
       <c r="AC449" s="15"/>
-      <c r="AD449" s="92"/>
+      <c r="AD449" s="18"/>
       <c r="AE449" s="15"/>
       <c r="AF449" s="15"/>
     </row>
@@ -21766,7 +21786,7 @@
       <c r="AA450" s="15"/>
       <c r="AB450" s="15"/>
       <c r="AC450" s="15"/>
-      <c r="AD450" s="92"/>
+      <c r="AD450" s="18"/>
       <c r="AE450" s="15"/>
       <c r="AF450" s="15"/>
     </row>
@@ -21797,7 +21817,7 @@
       <c r="AA451" s="15"/>
       <c r="AB451" s="15"/>
       <c r="AC451" s="15"/>
-      <c r="AD451" s="92"/>
+      <c r="AD451" s="18"/>
       <c r="AE451" s="15"/>
       <c r="AF451" s="15"/>
     </row>
@@ -21828,7 +21848,7 @@
       <c r="AA452" s="15"/>
       <c r="AB452" s="15"/>
       <c r="AC452" s="15"/>
-      <c r="AD452" s="92"/>
+      <c r="AD452" s="18"/>
       <c r="AE452" s="15"/>
       <c r="AF452" s="15"/>
     </row>
@@ -21859,7 +21879,7 @@
       <c r="AA453" s="15"/>
       <c r="AB453" s="15"/>
       <c r="AC453" s="15"/>
-      <c r="AD453" s="92"/>
+      <c r="AD453" s="18"/>
       <c r="AE453" s="15"/>
       <c r="AF453" s="15"/>
     </row>
@@ -21890,7 +21910,7 @@
       <c r="AA454" s="15"/>
       <c r="AB454" s="15"/>
       <c r="AC454" s="15"/>
-      <c r="AD454" s="92"/>
+      <c r="AD454" s="18"/>
       <c r="AE454" s="15"/>
       <c r="AF454" s="15"/>
     </row>
@@ -21921,7 +21941,7 @@
       <c r="AA455" s="15"/>
       <c r="AB455" s="15"/>
       <c r="AC455" s="15"/>
-      <c r="AD455" s="92"/>
+      <c r="AD455" s="18"/>
       <c r="AE455" s="15"/>
       <c r="AF455" s="15"/>
     </row>
@@ -21952,7 +21972,7 @@
       <c r="AA456" s="15"/>
       <c r="AB456" s="15"/>
       <c r="AC456" s="15"/>
-      <c r="AD456" s="92"/>
+      <c r="AD456" s="18"/>
       <c r="AE456" s="15"/>
       <c r="AF456" s="15"/>
     </row>
@@ -21983,7 +22003,7 @@
       <c r="AA457" s="15"/>
       <c r="AB457" s="15"/>
       <c r="AC457" s="15"/>
-      <c r="AD457" s="92"/>
+      <c r="AD457" s="18"/>
       <c r="AE457" s="15"/>
       <c r="AF457" s="15"/>
     </row>
@@ -22014,7 +22034,7 @@
       <c r="AA458" s="15"/>
       <c r="AB458" s="15"/>
       <c r="AC458" s="15"/>
-      <c r="AD458" s="92"/>
+      <c r="AD458" s="18"/>
       <c r="AE458" s="15"/>
       <c r="AF458" s="15"/>
     </row>
@@ -22045,7 +22065,7 @@
       <c r="AA459" s="15"/>
       <c r="AB459" s="15"/>
       <c r="AC459" s="15"/>
-      <c r="AD459" s="92"/>
+      <c r="AD459" s="18"/>
       <c r="AE459" s="15"/>
       <c r="AF459" s="15"/>
     </row>
@@ -22076,7 +22096,7 @@
       <c r="AA460" s="15"/>
       <c r="AB460" s="15"/>
       <c r="AC460" s="15"/>
-      <c r="AD460" s="92"/>
+      <c r="AD460" s="18"/>
       <c r="AE460" s="15"/>
       <c r="AF460" s="15"/>
     </row>
@@ -22107,7 +22127,7 @@
       <c r="AA461" s="15"/>
       <c r="AB461" s="15"/>
       <c r="AC461" s="15"/>
-      <c r="AD461" s="92"/>
+      <c r="AD461" s="18"/>
       <c r="AE461" s="15"/>
       <c r="AF461" s="15"/>
     </row>
@@ -22138,7 +22158,7 @@
       <c r="AA462" s="15"/>
       <c r="AB462" s="15"/>
       <c r="AC462" s="15"/>
-      <c r="AD462" s="92"/>
+      <c r="AD462" s="18"/>
       <c r="AE462" s="15"/>
       <c r="AF462" s="15"/>
     </row>
@@ -22169,7 +22189,7 @@
       <c r="AA463" s="15"/>
       <c r="AB463" s="15"/>
       <c r="AC463" s="15"/>
-      <c r="AD463" s="92"/>
+      <c r="AD463" s="18"/>
       <c r="AE463" s="15"/>
       <c r="AF463" s="15"/>
     </row>
@@ -22200,7 +22220,7 @@
       <c r="AA464" s="15"/>
       <c r="AB464" s="15"/>
       <c r="AC464" s="15"/>
-      <c r="AD464" s="92"/>
+      <c r="AD464" s="18"/>
       <c r="AE464" s="15"/>
       <c r="AF464" s="15"/>
     </row>
@@ -22231,7 +22251,7 @@
       <c r="AA465" s="15"/>
       <c r="AB465" s="15"/>
       <c r="AC465" s="15"/>
-      <c r="AD465" s="92"/>
+      <c r="AD465" s="18"/>
       <c r="AE465" s="15"/>
       <c r="AF465" s="15"/>
     </row>
@@ -22262,7 +22282,7 @@
       <c r="AA466" s="15"/>
       <c r="AB466" s="15"/>
       <c r="AC466" s="15"/>
-      <c r="AD466" s="92"/>
+      <c r="AD466" s="18"/>
       <c r="AE466" s="15"/>
       <c r="AF466" s="15"/>
     </row>
@@ -22293,7 +22313,7 @@
       <c r="AA467" s="15"/>
       <c r="AB467" s="15"/>
       <c r="AC467" s="15"/>
-      <c r="AD467" s="92"/>
+      <c r="AD467" s="18"/>
       <c r="AE467" s="15"/>
       <c r="AF467" s="15"/>
     </row>
@@ -22324,7 +22344,7 @@
       <c r="AA468" s="15"/>
       <c r="AB468" s="15"/>
       <c r="AC468" s="15"/>
-      <c r="AD468" s="92"/>
+      <c r="AD468" s="18"/>
       <c r="AE468" s="15"/>
       <c r="AF468" s="15"/>
     </row>
@@ -22355,7 +22375,7 @@
       <c r="AA469" s="15"/>
       <c r="AB469" s="15"/>
       <c r="AC469" s="15"/>
-      <c r="AD469" s="92"/>
+      <c r="AD469" s="18"/>
       <c r="AE469" s="15"/>
       <c r="AF469" s="15"/>
     </row>
@@ -22386,7 +22406,7 @@
       <c r="AA470" s="15"/>
       <c r="AB470" s="15"/>
       <c r="AC470" s="15"/>
-      <c r="AD470" s="92"/>
+      <c r="AD470" s="18"/>
       <c r="AE470" s="15"/>
       <c r="AF470" s="15"/>
     </row>
@@ -22417,7 +22437,7 @@
       <c r="AA471" s="15"/>
       <c r="AB471" s="15"/>
       <c r="AC471" s="15"/>
-      <c r="AD471" s="92"/>
+      <c r="AD471" s="18"/>
       <c r="AE471" s="15"/>
       <c r="AF471" s="15"/>
     </row>
@@ -22448,7 +22468,7 @@
       <c r="AA472" s="15"/>
       <c r="AB472" s="15"/>
       <c r="AC472" s="15"/>
-      <c r="AD472" s="92"/>
+      <c r="AD472" s="18"/>
       <c r="AE472" s="15"/>
       <c r="AF472" s="15"/>
     </row>
@@ -22479,7 +22499,7 @@
       <c r="AA473" s="15"/>
       <c r="AB473" s="15"/>
       <c r="AC473" s="15"/>
-      <c r="AD473" s="92"/>
+      <c r="AD473" s="18"/>
       <c r="AE473" s="15"/>
       <c r="AF473" s="15"/>
     </row>
@@ -22510,7 +22530,7 @@
       <c r="AA474" s="15"/>
       <c r="AB474" s="15"/>
       <c r="AC474" s="15"/>
-      <c r="AD474" s="92"/>
+      <c r="AD474" s="18"/>
       <c r="AE474" s="15"/>
       <c r="AF474" s="15"/>
     </row>
@@ -22541,7 +22561,7 @@
       <c r="AA475" s="15"/>
       <c r="AB475" s="15"/>
       <c r="AC475" s="15"/>
-      <c r="AD475" s="92"/>
+      <c r="AD475" s="18"/>
       <c r="AE475" s="15"/>
       <c r="AF475" s="15"/>
     </row>
@@ -22572,7 +22592,7 @@
       <c r="AA476" s="15"/>
       <c r="AB476" s="15"/>
       <c r="AC476" s="15"/>
-      <c r="AD476" s="92"/>
+      <c r="AD476" s="18"/>
       <c r="AE476" s="15"/>
       <c r="AF476" s="15"/>
     </row>
@@ -22603,7 +22623,7 @@
       <c r="AA477" s="15"/>
       <c r="AB477" s="15"/>
       <c r="AC477" s="15"/>
-      <c r="AD477" s="92"/>
+      <c r="AD477" s="18"/>
       <c r="AE477" s="15"/>
       <c r="AF477" s="15"/>
     </row>
@@ -22634,7 +22654,7 @@
       <c r="AA478" s="15"/>
       <c r="AB478" s="15"/>
       <c r="AC478" s="15"/>
-      <c r="AD478" s="92"/>
+      <c r="AD478" s="18"/>
       <c r="AE478" s="15"/>
       <c r="AF478" s="15"/>
     </row>
@@ -22665,7 +22685,7 @@
       <c r="AA479" s="15"/>
       <c r="AB479" s="15"/>
       <c r="AC479" s="15"/>
-      <c r="AD479" s="92"/>
+      <c r="AD479" s="18"/>
       <c r="AE479" s="15"/>
       <c r="AF479" s="15"/>
     </row>
@@ -23054,22 +23074,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CU1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -23117,16 +23137,16 @@
   <sheetData>
     <row r="1" ht="24" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>交易计划执行结果编码</t>
   </si>
@@ -826,6 +826,15 @@
   </si>
   <si>
     <t>当前暴露的风险总额</t>
+  </si>
+  <si>
+    <t>交易笔数</t>
+  </si>
+  <si>
+    <t>成功笔数</t>
+  </si>
+  <si>
+    <t>失败笔数</t>
   </si>
   <si>
     <t>平均成功率</t>
@@ -1728,10 +1737,10 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -23067,68 +23076,80 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:CV2"/>
+  <dimension ref="A1:CY2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="27.0803571428571" customWidth="1"/>
-    <col min="2" max="2" width="27.0803571428571" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.3839285714286" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.7857142857143" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.8214285714286" style="8" customWidth="1"/>
-    <col min="6" max="6" width="21.2767857142857" customWidth="1"/>
+    <col min="2" max="5" width="27.0803571428571" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.3839285714286" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.7857142857143" style="7" customWidth="1"/>
+    <col min="8" max="8" width="20.8214285714286" style="8" customWidth="1"/>
+    <col min="9" max="9" width="21.2767857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1" spans="1:100">
+    <row r="1" ht="28" customHeight="1" spans="1:103">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="G1" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="12">
+      <c r="H1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="11">
         <f>SUM(交易计划及执行表!S4:S18)</f>
         <v>3157.68002</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <f>SUM(交易计划及执行表!AE4:AE16)</f>
         <v>-386.523759999999</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="7">
         <v>0.3333</v>
       </c>
-      <c r="D2" s="7">
+      <c r="G2" s="7">
         <v>0.5</v>
       </c>
-      <c r="E2" s="7">
+      <c r="H2" s="7">
         <v>0.25</v>
       </c>
-      <c r="F2" s="13">
-        <f>C2*D2/(1-C2)*E2</f>
+      <c r="I2" s="13">
+        <f>F2*G2/(1-F2)*H2</f>
         <v>0.0624906254687266</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -23155,16 +23176,16 @@
   <sheetData>
     <row r="1" ht="24" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -23079,7 +23079,7 @@
   <dimension ref="A1:CY2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4" outlineLevelRow="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -875,14 +875,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -995,6 +995,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
@@ -1010,31 +1018,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,14 +1048,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1073,14 +1057,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,26 +1087,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1124,8 +1123,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,7 +1179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,7 +1209,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,31 +1275,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,43 +1341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,19 +1359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,7 +1371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,43 +1383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,7 +1466,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1481,39 +1529,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1544,123 +1559,108 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1669,43 +1669,43 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1722,10 +1722,10 @@
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1749,7 +1749,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1764,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1773,7 +1773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,13 +1824,13 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1839,7 +1839,7 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,7 +1848,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,16 +1857,16 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1926,10 +1926,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1941,7 +1941,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1956,7 +1956,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1965,7 +1965,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,16 +1977,16 @@
     <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6568,11 +6568,11 @@
   <dimension ref="A1:BV552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -7815,11 +7815,11 @@
         <v>0.504273504273506</v>
       </c>
       <c r="R12" s="66">
-        <v>33.38</v>
+        <v>34.68</v>
       </c>
       <c r="S12" s="67">
         <f t="shared" ref="S9:S18" si="6">(F12-R12)*G12+H12+I12+5</f>
-        <v>880.150919999999</v>
+        <v>620.150919999999</v>
       </c>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
@@ -7909,11 +7909,11 @@
         <v>0.28205128205128</v>
       </c>
       <c r="R13" s="66">
-        <v>33.38</v>
+        <v>34.68</v>
       </c>
       <c r="S13" s="67">
         <f t="shared" si="6"/>
-        <v>932.15196</v>
+        <v>672.15196</v>
       </c>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
@@ -22206,7 +22206,7 @@
     <row r="2" spans="1:10">
       <c r="A2" s="11">
         <f>SUM(交易计划及执行表!S4:S18)</f>
-        <v>3157.68002</v>
+        <v>2637.68002</v>
       </c>
       <c r="B2" s="11">
         <f>SUM(交易计划及执行表!AE4:AE16)</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -876,14 +876,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -989,6 +989,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -1003,25 +1010,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1040,11 +1040,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1056,32 +1071,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,6 +1094,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -1111,21 +1126,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,7 +1209,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,37 +1299,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,127 +1377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,6 +1465,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1476,6 +1485,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1495,11 +1519,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1518,143 +1559,102 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1663,49 +1663,49 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1719,16 +1719,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1740,16 +1740,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1764,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1824,13 +1824,13 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1839,7 +1839,7 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,7 +1848,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,16 +1857,16 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1926,10 +1926,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1941,13 +1941,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6568,11 +6568,11 @@
   <dimension ref="A1:BV552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="19940" windowHeight="11360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -877,13 +877,13 @@
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="177" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -996,7 +996,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,23 +1010,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,7 +1050,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1065,15 +1081,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,39 +1108,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,7 +1203,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,7 +1317,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,7 +1347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,37 +1359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,85 +1371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,19 +1383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,11 +1480,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1500,36 +1506,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1559,150 +1535,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1719,7 +1719,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,7 +1728,7 @@
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1740,10 +1740,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1944,10 +1944,10 @@
     <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2266,343 +2266,25 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39880.77</c:v>
+                  <c:v>59880.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39812.54</c:v>
+                  <c:v>59812.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39808.03</c:v>
+                  <c:v>59808.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39831.02</c:v>
+                  <c:v>59831.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40295</c:v>
+                  <c:v>60295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40235.19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>资金曲线!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>每笔交易风险额度</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0" c:formatCode="yyyy\-m\-d">
-                  <c:v>44489</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy\-m\-d">
-                  <c:v>44496</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy\-m\-d">
-                  <c:v>44503</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy\-m\-d">
-                  <c:v>44510</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                  <c:v>44524</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
-                  <c:v>44538</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>资金曲线!$C$2:$C$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$9)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>398.8077</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>398.1254</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>398.0803</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>398.3102</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>402.95</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>402.3519</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>资金曲线!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>总交易风险额度</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0" c:formatCode="yyyy\-m\-d">
-                  <c:v>44489</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy\-m\-d">
-                  <c:v>44496</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy\-m\-d">
-                  <c:v>44503</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy\-m\-d">
-                  <c:v>44510</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                  <c:v>44524</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
-                  <c:v>44538</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>资金曲线!$D$2:$D$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$9)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2392.8462</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2388.7524</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2388.4818</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2389.8612</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2417.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2414.1114</c:v>
+                  <c:v>60235.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,6 +2303,352 @@
         <c:smooth val="0"/>
         <c:axId val="632913533"/>
         <c:axId val="654560973"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>资金曲线!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>每笔交易风险额度</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:numFmt formatCode="General" sourceLinked="1"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-m\-d</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                        <c:v>44489</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                        <c:v>44496</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                        <c:v>44503</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                        <c:v>44510</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                        <c:v>44524</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                        <c:v>44531</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                        <c:v>44538</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>资金曲线!$C$2:$C$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>598.8077</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>598.1254</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>598.0803</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>598.3102</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>602.95</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>602.3519</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>资金曲线!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>总交易风险额度</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:numFmt formatCode="General" sourceLinked="1"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-m\-d</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                        <c:v>44489</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                        <c:v>44496</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                        <c:v>44503</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                        <c:v>44510</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                        <c:v>44524</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                        <c:v>44531</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                        <c:v>44538</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>资金曲线!$D$2:$D$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>3600</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3592.8462</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3588.7524</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3588.4818</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3589.8612</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3617.7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3614.1114</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:dateAx>
         <c:axId val="632913533"/>
@@ -2676,7 +2704,6 @@
         <c:axId val="654560973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="39500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2727,8 +2754,6 @@
         <c:crossAx val="632913533"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
-        <c:minorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2914,25 +2939,25 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>398.8077</c:v>
+                  <c:v>598.8077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>398.1254</c:v>
+                  <c:v>598.1254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>398.0803</c:v>
+                  <c:v>598.0803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>398.3102</c:v>
+                  <c:v>598.3102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>402.95</c:v>
+                  <c:v>602.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>402.3519</c:v>
+                  <c:v>602.3519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3044,22 +3069,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>40000</c:v>
+                        <c:v>60000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>39880.77</c:v>
+                        <c:v>59880.77</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>39812.54</c:v>
+                        <c:v>59812.54</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>39808.03</c:v>
+                        <c:v>59808.03</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>39831.02</c:v>
+                        <c:v>59831.02</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>40295</c:v>
+                        <c:v>60295</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3347,25 +3372,25 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2400</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2392.8462</c:v>
+                  <c:v>3592.8462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2388.7524</c:v>
+                  <c:v>3588.7524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2388.4818</c:v>
+                  <c:v>3588.4818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2389.8612</c:v>
+                  <c:v>3589.8612</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2417.7</c:v>
+                  <c:v>3617.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2414.1114</c:v>
+                  <c:v>3614.1114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3477,22 +3502,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>40000</c:v>
+                        <c:v>60000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>39880.77</c:v>
+                        <c:v>59880.77</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>39812.54</c:v>
+                        <c:v>59812.54</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>39808.03</c:v>
+                        <c:v>59808.03</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>39831.02</c:v>
+                        <c:v>59831.02</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>40295</c:v>
+                        <c:v>60295</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3591,22 +3616,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>400</c:v>
+                        <c:v>600</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>398.8077</c:v>
+                        <c:v>598.8077</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>398.1254</c:v>
+                        <c:v>598.1254</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>398.0803</c:v>
+                        <c:v>598.0803</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>398.3102</c:v>
+                        <c:v>598.3102</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>402.95</c:v>
+                        <c:v>602.95</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5438,14 +5463,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
+      <xdr:colOff>22225</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -5455,7 +5480,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4734560" y="60960"/>
+        <a:off x="4745355" y="60960"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6567,12 +6592,12 @@
   <sheetPr/>
   <dimension ref="A1:BV552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -7178,8 +7203,7 @@
         <v>34.7</v>
       </c>
       <c r="S6" s="67">
-        <f>(F6-R6)*G6+H6+I6+5</f>
-        <v>-86.9325400000006</v>
+        <v>0</v>
       </c>
       <c r="T6" s="47"/>
       <c r="U6" s="20"/>
@@ -22158,7 +22182,7 @@
   <dimension ref="A1:CY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -22206,7 +22230,7 @@
     <row r="2" spans="1:10">
       <c r="A2" s="11">
         <f>SUM(交易计划及执行表!S4:S18)</f>
-        <v>2637.68002</v>
+        <v>2724.61256</v>
       </c>
       <c r="B2" s="11">
         <f>SUM(交易计划及执行表!AE4:AE16)</f>
@@ -22241,8 +22265,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -22272,15 +22296,15 @@
         <v>44489</v>
       </c>
       <c r="B2" s="4">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="C2" s="4">
         <f>(VLOOKUP(A2,$A$1:$D99,2,FALSE)*0.01)</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D2" s="4">
         <f>(VLOOKUP(A2,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -22288,15 +22312,15 @@
         <v>44496</v>
       </c>
       <c r="B3" s="4">
-        <v>39880.77</v>
+        <v>59880.77</v>
       </c>
       <c r="C3" s="4">
         <f>(VLOOKUP(A3,$A$1:$D100,2,FALSE)*0.01)</f>
-        <v>398.8077</v>
+        <v>598.8077</v>
       </c>
       <c r="D3" s="4">
-        <f>(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2392.8462</v>
+        <f t="shared" ref="D3:D9" si="0">(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>3592.8462</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -22304,15 +22328,15 @@
         <v>44503</v>
       </c>
       <c r="B4" s="4">
-        <v>39812.54</v>
+        <v>59812.54</v>
       </c>
       <c r="C4" s="4">
         <f>(VLOOKUP(A4,$A$1:$D101,2,FALSE)*0.01)</f>
-        <v>398.1254</v>
+        <v>598.1254</v>
       </c>
       <c r="D4" s="4">
-        <f>(VLOOKUP(A4,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2388.7524</v>
+        <f t="shared" si="0"/>
+        <v>3588.7524</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -22320,15 +22344,15 @@
         <v>44510</v>
       </c>
       <c r="B5" s="4">
-        <v>39808.03</v>
+        <v>59808.03</v>
       </c>
       <c r="C5" s="4">
         <f>(VLOOKUP(A5,$A$1:$D102,2,FALSE)*0.01)</f>
-        <v>398.0803</v>
+        <v>598.0803</v>
       </c>
       <c r="D5" s="4">
-        <f>(VLOOKUP(A5,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2388.4818</v>
+        <f t="shared" si="0"/>
+        <v>3588.4818</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -22343,7 +22367,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <f>(VLOOKUP(A6,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -22352,15 +22376,15 @@
         <v>44524</v>
       </c>
       <c r="B7" s="4">
-        <v>39831.02</v>
+        <v>59831.02</v>
       </c>
       <c r="C7" s="4">
         <f>(VLOOKUP(A7,$A$1:$D104,2,FALSE)*0.01)</f>
-        <v>398.3102</v>
+        <v>598.3102</v>
       </c>
       <c r="D7" s="4">
-        <f>(VLOOKUP(A7,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2389.8612</v>
+        <f t="shared" si="0"/>
+        <v>3589.8612</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -22368,15 +22392,15 @@
         <v>44531</v>
       </c>
       <c r="B8" s="4">
-        <v>40295</v>
+        <v>60295</v>
       </c>
       <c r="C8" s="4">
         <f>(VLOOKUP(A8,$A$1:$D105,2,FALSE)*0.01)</f>
-        <v>402.95</v>
+        <v>602.95</v>
       </c>
       <c r="D8" s="4">
-        <f>(VLOOKUP(A8,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2417.7</v>
+        <f t="shared" si="0"/>
+        <v>3617.7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -22384,15 +22408,15 @@
         <v>44538</v>
       </c>
       <c r="B9" s="4">
-        <v>40235.19</v>
+        <v>60235.19</v>
       </c>
       <c r="C9" s="4">
         <f>(VLOOKUP(A9,$A$1:$D106,2,FALSE)*0.01)</f>
-        <v>402.3519</v>
+        <v>602.3519</v>
       </c>
       <c r="D9" s="4">
-        <f>(VLOOKUP(A9,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2414.1114</v>
+        <f t="shared" si="0"/>
+        <v>3614.1114</v>
       </c>
     </row>
     <row r="10" spans="1:4">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19940" windowHeight="11360" activeTab="2"/>
+    <workbookView windowWidth="19940" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -6592,7 +6592,7 @@
   <sheetPr/>
   <dimension ref="A1:BV552"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -22265,8 +22265,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19940" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -875,15 +875,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -988,10 +988,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1002,16 +1003,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,6 +1027,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1033,24 +1056,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,8 +1079,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,14 +1103,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1110,22 +1118,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,13 +1209,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,13 +1245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,25 +1257,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,31 +1275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,13 +1293,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,55 +1341,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,8 +1465,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1475,22 +1490,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1536,26 +1545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1564,148 +1564,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1719,16 +1719,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1740,16 +1740,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1764,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1773,7 +1773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,13 +1824,13 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1839,7 +1839,7 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,7 +1848,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,16 +1857,16 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1926,10 +1926,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1941,13 +1941,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,7 +1956,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1965,7 +1965,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,16 +1977,16 @@
     <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2266,25 +2266,25 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>60000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59880.77</c:v>
+                  <c:v>99880.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59812.54</c:v>
+                  <c:v>99812.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59808.03</c:v>
+                  <c:v>99808.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59831.02</c:v>
+                  <c:v>99831.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60295</c:v>
+                  <c:v>100295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60235.19</c:v>
+                  <c:v>100235.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2450,25 +2450,25 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>600</c:v>
+                        <c:v>1000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>598.8077</c:v>
+                        <c:v>998.8077</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>598.1254</c:v>
+                        <c:v>998.1254</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>598.0803</c:v>
+                        <c:v>998.0803</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>598.3102</c:v>
+                        <c:v>998.3102</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>602.95</c:v>
+                        <c:v>1002.95</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>602.3519</c:v>
+                        <c:v>1002.3519</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2621,25 +2621,25 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>3600</c:v>
+                        <c:v>6000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3592.8462</c:v>
+                        <c:v>5992.8462</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3588.7524</c:v>
+                        <c:v>5988.7524</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3588.4818</c:v>
+                        <c:v>5988.4818</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3589.8612</c:v>
+                        <c:v>5989.8612</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>3617.7</c:v>
+                        <c:v>6017.7</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>3614.1114</c:v>
+                        <c:v>6014.1114</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2939,25 +2939,25 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>598.8077</c:v>
+                  <c:v>998.8077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>598.1254</c:v>
+                  <c:v>998.1254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>598.0803</c:v>
+                  <c:v>998.0803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>598.3102</c:v>
+                  <c:v>998.3102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>602.95</c:v>
+                  <c:v>1002.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>602.3519</c:v>
+                  <c:v>1002.3519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,22 +3069,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>60000</c:v>
+                        <c:v>100000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>59880.77</c:v>
+                        <c:v>99880.77</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>59812.54</c:v>
+                        <c:v>99812.54</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>59808.03</c:v>
+                        <c:v>99808.03</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>59831.02</c:v>
+                        <c:v>99831.02</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>60295</c:v>
+                        <c:v>100295</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3372,25 +3372,25 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3600</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3592.8462</c:v>
+                  <c:v>5992.8462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3588.7524</c:v>
+                  <c:v>5988.7524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3588.4818</c:v>
+                  <c:v>5988.4818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3589.8612</c:v>
+                  <c:v>5989.8612</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3617.7</c:v>
+                  <c:v>6017.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3614.1114</c:v>
+                  <c:v>6014.1114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3502,22 +3502,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>60000</c:v>
+                        <c:v>100000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>59880.77</c:v>
+                        <c:v>99880.77</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>59812.54</c:v>
+                        <c:v>99812.54</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>59808.03</c:v>
+                        <c:v>99808.03</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>59831.02</c:v>
+                        <c:v>99831.02</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>60295</c:v>
+                        <c:v>100295</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3616,22 +3616,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>600</c:v>
+                        <c:v>1000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>598.8077</c:v>
+                        <c:v>998.8077</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>598.1254</c:v>
+                        <c:v>998.1254</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>598.0803</c:v>
+                        <c:v>998.0803</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>598.3102</c:v>
+                        <c:v>998.3102</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>602.95</c:v>
+                        <c:v>1002.95</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6592,7 +6592,7 @@
   <sheetPr/>
   <dimension ref="A1:BV552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -22265,8 +22265,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -22296,15 +22296,15 @@
         <v>44489</v>
       </c>
       <c r="B2" s="4">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="C2" s="4">
         <f>(VLOOKUP(A2,$A$1:$D99,2,FALSE)*0.01)</f>
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="4">
         <f>(VLOOKUP(A2,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>3600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -22312,15 +22312,15 @@
         <v>44496</v>
       </c>
       <c r="B3" s="4">
-        <v>59880.77</v>
+        <v>99880.77</v>
       </c>
       <c r="C3" s="4">
         <f>(VLOOKUP(A3,$A$1:$D100,2,FALSE)*0.01)</f>
-        <v>598.8077</v>
+        <v>998.8077</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D9" si="0">(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>3592.8462</v>
+        <v>5992.8462</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -22328,15 +22328,15 @@
         <v>44503</v>
       </c>
       <c r="B4" s="4">
-        <v>59812.54</v>
+        <v>99812.54</v>
       </c>
       <c r="C4" s="4">
         <f>(VLOOKUP(A4,$A$1:$D101,2,FALSE)*0.01)</f>
-        <v>598.1254</v>
+        <v>998.1254</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>3588.7524</v>
+        <v>5988.7524</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -22344,15 +22344,15 @@
         <v>44510</v>
       </c>
       <c r="B5" s="4">
-        <v>59808.03</v>
+        <v>99808.03</v>
       </c>
       <c r="C5" s="4">
         <f>(VLOOKUP(A5,$A$1:$D102,2,FALSE)*0.01)</f>
-        <v>598.0803</v>
+        <v>998.0803</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>3588.4818</v>
+        <v>5988.4818</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -22376,15 +22376,15 @@
         <v>44524</v>
       </c>
       <c r="B7" s="4">
-        <v>59831.02</v>
+        <v>99831.02</v>
       </c>
       <c r="C7" s="4">
         <f>(VLOOKUP(A7,$A$1:$D104,2,FALSE)*0.01)</f>
-        <v>598.3102</v>
+        <v>998.3102</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>3589.8612</v>
+        <v>5989.8612</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -22392,15 +22392,15 @@
         <v>44531</v>
       </c>
       <c r="B8" s="4">
-        <v>60295</v>
+        <v>100295</v>
       </c>
       <c r="C8" s="4">
         <f>(VLOOKUP(A8,$A$1:$D105,2,FALSE)*0.01)</f>
-        <v>602.95</v>
+        <v>1002.95</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>3617.7</v>
+        <v>6017.7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -22408,15 +22408,15 @@
         <v>44538</v>
       </c>
       <c r="B9" s="4">
-        <v>60235.19</v>
+        <v>100235.19</v>
       </c>
       <c r="C9" s="4">
         <f>(VLOOKUP(A9,$A$1:$D106,2,FALSE)*0.01)</f>
-        <v>602.3519</v>
+        <v>1002.3519</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>3614.1114</v>
+        <v>6014.1114</v>
       </c>
     </row>
     <row r="10" spans="1:4">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -875,15 +875,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -988,29 +988,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -1018,9 +995,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,17 +1017,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1056,6 +1040,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -1071,6 +1101,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1079,53 +1116,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,7 +1203,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,13 +1275,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,19 +1335,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,109 +1359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,19 +1377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,23 +1465,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1498,33 +1483,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1559,153 +1518,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1722,13 +1722,13 @@
     <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1740,16 +1740,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1764,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1773,7 +1773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,13 +1824,13 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1839,7 +1839,7 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,7 +1848,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,16 +1857,16 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1926,10 +1926,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1941,13 +1941,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,7 +1956,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1965,7 +1965,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,16 +1977,16 @@
     <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -22266,7 +22266,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -22423,9 +22423,17 @@
       <c r="A10" s="3">
         <v>44545</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="4">
+        <v>99412</v>
+      </c>
+      <c r="C10" s="4">
+        <f>(VLOOKUP(A10,$A$1:$D107,2,FALSE)*0.01)</f>
+        <v>994.12</v>
+      </c>
+      <c r="D10" s="4">
+        <f>(VLOOKUP(A10,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>5964.72</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="2"/>
+    <workbookView windowWidth="19940" windowHeight="11360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -2220,14 +2220,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                    <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c:f>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -2249,6 +2249,9 @@
                 <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                   <c:v>44538</c:v>
                 </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                  <c:v>44545</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2257,14 +2260,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$B$2:$B$9</c15:sqref>
+                    <c15:sqref>资金曲线!$B$2:$B$10</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$B$2:$B$5,资金曲线!$B$7:$B$9)</c:f>
+              <c:f>(资金曲线!$B$2:$B$5,资金曲线!$B$7:$B$10)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
                 </c:pt>
@@ -2285,6 +2288,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>100235.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2400,16 +2406,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                          <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2431,6 +2437,9 @@
                       <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                         <c:v>44538</c:v>
                       </c:pt>
+                      <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                        <c:v>44545</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2439,16 +2448,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$C$2:$C$9</c15:sqref>
+                          <c15:sqref>资金曲线!$C$2:$C$10</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$9)</c15:sqref>
+                          <c15:sqref>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$10)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
                         <c:v>1000</c:v>
                       </c:pt>
@@ -2469,6 +2478,9 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>1002.3519</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>994.12</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2571,16 +2583,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                          <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2602,6 +2614,9 @@
                       <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                         <c:v>44538</c:v>
                       </c:pt>
+                      <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                        <c:v>44545</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2610,16 +2625,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$D$2:$D$9</c15:sqref>
+                          <c15:sqref>资金曲线!$D$2:$D$10</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$9)</c15:sqref>
+                          <c15:sqref>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$10)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
                         <c:v>6000</c:v>
                       </c:pt>
@@ -2640,6 +2655,9 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>6014.1114</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5964.72</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2893,14 +2911,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                    <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c:f>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -2922,6 +2940,9 @@
                 <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                   <c:v>44538</c:v>
                 </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                  <c:v>44545</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2930,14 +2951,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$C$2:$C$9</c15:sqref>
+                    <c15:sqref>资金曲线!$C$2:$C$10</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$9)</c:f>
+              <c:f>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$10)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -2958,6 +2979,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1002.3519</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>994.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3019,16 +3043,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                          <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3049,6 +3073,9 @@
                       </c:pt>
                       <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                         <c:v>44538</c:v>
+                      </c:pt>
+                      <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                        <c:v>44545</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3099,6 +3126,7 @@
         <c:axId val="307545957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="44545"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3326,14 +3354,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                    <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c:f>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -3355,6 +3383,9 @@
                 <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                   <c:v>44538</c:v>
                 </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                  <c:v>44545</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3363,14 +3394,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$D$2:$D$9</c15:sqref>
+                    <c15:sqref>资金曲线!$D$2:$D$10</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$9)</c:f>
+              <c:f>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$10)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6000</c:v>
                 </c:pt>
@@ -3391,6 +3422,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6014.1114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5964.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3452,16 +3486,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                          <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3482,6 +3516,9 @@
                       </c:pt>
                       <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                         <c:v>44538</c:v>
+                      </c:pt>
+                      <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                        <c:v>44545</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3566,16 +3603,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                          <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3596,6 +3633,9 @@
                       </c:pt>
                       <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                         <c:v>44538</c:v>
+                      </c:pt>
+                      <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                        <c:v>44545</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -22266,7 +22306,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A1" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果202112.xlsx
@@ -22306,7 +22306,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
